--- a/Results/Results.xlsx
+++ b/Results/Results.xlsx
@@ -9,22 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="BSBM" sheetId="1" r:id="rId1"/>
     <sheet name="Watdiv" sheetId="2" r:id="rId2"/>
     <sheet name="FishMark" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="26">
   <si>
     <t>Virtuoso (row)</t>
   </si>
@@ -33,24 +30,6 @@
   </si>
   <si>
     <t>Blazegraph</t>
-  </si>
-  <si>
-    <t>SNV-MongoDB</t>
-  </si>
-  <si>
-    <t>SNV-CouchBase</t>
-  </si>
-  <si>
-    <t>CNV-MongoDB</t>
-  </si>
-  <si>
-    <t>CNV-CouchBase</t>
-  </si>
-  <si>
-    <t>DL-MongoDB</t>
-  </si>
-  <si>
-    <t>DL-CouchBase</t>
   </si>
   <si>
     <t>Q1</t>
@@ -103,12 +82,30 @@
   <si>
     <t>1000M</t>
   </si>
+  <si>
+    <t>JSON-SNV (MongoDB)</t>
+  </si>
+  <si>
+    <t>JSON-SNV (Couchbase)</t>
+  </si>
+  <si>
+    <t>JSON-CNV (MongoDB)</t>
+  </si>
+  <si>
+    <t>JSON-CNV (Couchbase)</t>
+  </si>
+  <si>
+    <t>JSON-DT (MongoDB)</t>
+  </si>
+  <si>
+    <t>JSON-DT (Couchbase)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -156,6 +153,22 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -224,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -235,7 +248,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -260,6 +272,21 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -395,12 +422,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -440,9 +464,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$5:$I$13</c:f>
+              <c:f>BSBM!$I$5:$I$12</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -453,21 +477,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -475,10 +496,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$J$5:$J$13</c:f>
+              <c:f>BSBM!$J$5:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>31.09</c:v>
                 </c:pt>
@@ -489,21 +510,18 @@
                   <c:v>16.89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.72</c:v>
+                  <c:v>195.98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>195.98</c:v>
+                  <c:v>119.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>119.76</c:v>
+                  <c:v>26.79</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>26.79</c:v>
+                  <c:v>37.44</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.44</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>4.21</c:v>
                 </c:pt>
               </c:numCache>
@@ -511,7 +529,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001C-9791-4602-AD25-07EE6D4B9239}"/>
+              <c16:uniqueId val="{00000001-7CCF-469A-8A6A-3B3FDE59FE12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -561,12 +579,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -606,9 +621,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$5:$I$13</c:f>
+              <c:f>BSBM!$I$5:$I$12</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -619,21 +634,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -641,10 +653,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$K$5:$K$13</c:f>
+              <c:f>BSBM!$K$5:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>27.79</c:v>
                 </c:pt>
@@ -655,21 +667,18 @@
                   <c:v>16.690000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.03</c:v>
+                  <c:v>8363</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8363</c:v>
+                  <c:v>111.86</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111.86</c:v>
+                  <c:v>29.53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.53</c:v>
+                  <c:v>41.83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.83</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>2.2599999999999998</c:v>
                 </c:pt>
               </c:numCache>
@@ -677,7 +686,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000001E-9791-4602-AD25-07EE6D4B9239}"/>
+              <c16:uniqueId val="{00000003-7CCF-469A-8A6A-3B3FDE59FE12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -728,12 +737,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -760,9 +766,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$5:$I$13</c:f>
+              <c:f>BSBM!$I$5:$I$12</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -773,21 +779,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -795,10 +798,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$L$5:$L$13</c:f>
+              <c:f>BSBM!$L$5:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>127.87</c:v>
                 </c:pt>
@@ -809,21 +812,18 @@
                   <c:v>153.08000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.62</c:v>
+                  <c:v>549.32000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>549.32000000000005</c:v>
+                  <c:v>1149.54</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1149.54</c:v>
+                  <c:v>147.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>147.80000000000001</c:v>
+                  <c:v>129.02000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>129.02000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>117.67</c:v>
                 </c:pt>
               </c:numCache>
@@ -831,7 +831,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000020-9791-4602-AD25-07EE6D4B9239}"/>
+              <c16:uniqueId val="{00000005-7CCF-469A-8A6A-3B3FDE59FE12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -844,7 +844,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SNV-MongoDB</c:v>
+                  <c:v>JSON-SNV (MongoDB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -888,7 +888,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000022-9791-4602-AD25-07EE6D4B9239}"/>
+                  <c16:uniqueId val="{00000007-7CCF-469A-8A6A-3B3FDE59FE12}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -904,9 +904,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -934,9 +934,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$5:$I$13</c:f>
+              <c:f>BSBM!$I$5:$I$12</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -947,21 +947,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -969,43 +966,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$M$5:$M$13</c:f>
+              <c:f>BSBM!$M$5:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>7.09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>846.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>846</c:v>
+                  <c:v>3848.11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3848</c:v>
+                  <c:v>197.83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>197</c:v>
+                  <c:v>26.37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>4.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000023-9791-4602-AD25-07EE6D4B9239}"/>
+              <c16:uniqueId val="{00000008-7CCF-469A-8A6A-3B3FDE59FE12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1018,7 +1012,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SNV-CouchBase</c:v>
+                  <c:v>JSON-SNV (Couchbase)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1054,7 +1048,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1076,9 +1074,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$5:$I$13</c:f>
+              <c:f>BSBM!$I$5:$I$12</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -1089,21 +1087,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -1111,10 +1106,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$N$5:$N$13</c:f>
+              <c:f>BSBM!$N$5:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>7.68</c:v>
                 </c:pt>
@@ -1125,21 +1120,18 @@
                   <c:v>9.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.77</c:v>
+                  <c:v>1880.66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1880.66</c:v>
+                  <c:v>8230.09</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8230.09</c:v>
+                  <c:v>1117.28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1117.28</c:v>
+                  <c:v>35.270000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.270000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>9.67</c:v>
                 </c:pt>
               </c:numCache>
@@ -1147,7 +1139,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000024-9791-4602-AD25-07EE6D4B9239}"/>
+              <c16:uniqueId val="{0000000A-7CCF-469A-8A6A-3B3FDE59FE12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1160,7 +1152,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CNV-MongoDB</c:v>
+                  <c:v>JSON-CNV (MongoDB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1196,7 +1188,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1218,9 +1214,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$5:$I$13</c:f>
+              <c:f>BSBM!$I$5:$I$12</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -1231,21 +1227,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -1253,10 +1246,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$O$5:$O$13</c:f>
+              <c:f>BSBM!$O$5:$O$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>25.51</c:v>
                 </c:pt>
@@ -1267,21 +1260,18 @@
                   <c:v>19.98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.21</c:v>
+                  <c:v>9.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.1</c:v>
+                  <c:v>28.29</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.29</c:v>
+                  <c:v>5.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7</c:v>
+                  <c:v>37.18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>14.34</c:v>
                 </c:pt>
               </c:numCache>
@@ -1289,7 +1279,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000025-9791-4602-AD25-07EE6D4B9239}"/>
+              <c16:uniqueId val="{0000000C-7CCF-469A-8A6A-3B3FDE59FE12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1302,7 +1292,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CNV-CouchBase</c:v>
+                  <c:v>JSON-CNV (Couchbase)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1338,7 +1328,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1360,9 +1354,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$5:$I$13</c:f>
+              <c:f>BSBM!$I$5:$I$12</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -1373,21 +1367,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -1395,10 +1386,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$P$5:$P$13</c:f>
+              <c:f>BSBM!$P$5:$P$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>29.91</c:v>
                 </c:pt>
@@ -1409,21 +1400,18 @@
                   <c:v>22.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.690000000000001</c:v>
+                  <c:v>34.49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34.49</c:v>
+                  <c:v>47.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.13</c:v>
+                  <c:v>8.52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.52</c:v>
+                  <c:v>52.41</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.41</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>21.07</c:v>
                 </c:pt>
               </c:numCache>
@@ -1431,7 +1419,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000026-9791-4602-AD25-07EE6D4B9239}"/>
+              <c16:uniqueId val="{0000000E-7CCF-469A-8A6A-3B3FDE59FE12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1444,7 +1432,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DL-MongoDB</c:v>
+                  <c:v>JSON-DT (MongoDB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1484,7 +1472,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1506,9 +1498,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$5:$I$13</c:f>
+              <c:f>BSBM!$I$5:$I$12</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -1519,21 +1511,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -1541,10 +1530,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$Q$5:$Q$13</c:f>
+              <c:f>BSBM!$Q$5:$Q$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>24899</c:v>
                 </c:pt>
@@ -1555,10 +1544,10 @@
                   <c:v>2711</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3660</c:v>
+                  <c:v>4448</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4448</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1567,9 +1556,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1577,7 +1563,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000027-9791-4602-AD25-07EE6D4B9239}"/>
+              <c16:uniqueId val="{00000010-7CCF-469A-8A6A-3B3FDE59FE12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1590,7 +1576,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DL-CouchBase</c:v>
+                  <c:v>JSON-DT (Couchbase)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1630,7 +1616,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1652,9 +1642,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$5:$I$13</c:f>
+              <c:f>BSBM!$I$5:$I$12</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -1665,21 +1655,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -1687,10 +1674,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$R$5:$R$13</c:f>
+              <c:f>BSBM!$R$5:$R$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3209.45</c:v>
                 </c:pt>
@@ -1701,10 +1688,10 @@
                   <c:v>3654.64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3192.27</c:v>
+                  <c:v>3323.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3323.75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1713,9 +1700,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>12.22</c:v>
                 </c:pt>
               </c:numCache>
@@ -1723,7 +1707,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000028-9791-4602-AD25-07EE6D4B9239}"/>
+              <c16:uniqueId val="{00000012-7CCF-469A-8A6A-3B3FDE59FE12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1772,10 +1756,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1915,7 +1896,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.9317722948141591E-2"/>
+          <c:y val="0.73048827806235428"/>
+          <c:w val="0.91418209356685542"/>
+          <c:h val="0.23525164297760551"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1931,10 +1921,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
@@ -2052,7 +2039,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSBM!$J$45</c:f>
+              <c:f>BSBM!$J$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2091,12 +2078,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2136,9 +2120,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$46:$I$54</c:f>
+              <c:f>BSBM!$I$45:$I$52</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -2149,21 +2133,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -2171,10 +2152,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$J$46:$J$54</c:f>
+              <c:f>BSBM!$J$45:$J$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>38.83</c:v>
                 </c:pt>
@@ -2185,21 +2166,18 @@
                   <c:v>24.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.61</c:v>
+                  <c:v>392.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>392.35</c:v>
+                  <c:v>192.58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>192.58</c:v>
+                  <c:v>27.37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27.37</c:v>
+                  <c:v>39.130000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.130000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>4.09</c:v>
                 </c:pt>
               </c:numCache>
@@ -2207,7 +2185,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E652-48E5-8DC5-8F8BDE9F38FF}"/>
+              <c16:uniqueId val="{00000001-371F-4B5D-A12C-C32834A4BBED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2216,7 +2194,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSBM!$K$45</c:f>
+              <c:f>BSBM!$K$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2257,12 +2235,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2302,9 +2277,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$46:$I$54</c:f>
+              <c:f>BSBM!$I$45:$I$52</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -2315,21 +2290,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -2337,10 +2309,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$K$46:$K$54</c:f>
+              <c:f>BSBM!$K$45:$K$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>34.409999999999997</c:v>
                 </c:pt>
@@ -2351,21 +2323,18 @@
                   <c:v>28.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.03</c:v>
+                  <c:v>192.84</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>192.84</c:v>
+                  <c:v>167.26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>167.26</c:v>
+                  <c:v>35.770000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.770000000000003</c:v>
+                  <c:v>45.74</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.74</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>4.55</c:v>
                 </c:pt>
               </c:numCache>
@@ -2373,7 +2342,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E652-48E5-8DC5-8F8BDE9F38FF}"/>
+              <c16:uniqueId val="{00000003-371F-4B5D-A12C-C32834A4BBED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2382,7 +2351,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSBM!$L$45</c:f>
+              <c:f>BSBM!$L$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2424,12 +2393,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2456,9 +2422,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$46:$I$54</c:f>
+              <c:f>BSBM!$I$45:$I$52</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -2469,21 +2435,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -2491,10 +2454,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$L$46:$L$54</c:f>
+              <c:f>BSBM!$L$45:$L$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>239.81</c:v>
                 </c:pt>
@@ -2505,21 +2468,18 @@
                   <c:v>157.13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>174.47</c:v>
+                  <c:v>1245.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1245.48</c:v>
+                  <c:v>204.72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>204.72</c:v>
+                  <c:v>203.72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>203.72</c:v>
+                  <c:v>175.81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>175.81</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>148.72999999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -2527,7 +2487,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E652-48E5-8DC5-8F8BDE9F38FF}"/>
+              <c16:uniqueId val="{00000005-371F-4B5D-A12C-C32834A4BBED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2536,11 +2496,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSBM!$M$45</c:f>
+              <c:f>BSBM!$M$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SNV-MongoDB</c:v>
+                  <c:v>JSON-SNV (MongoDB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2584,7 +2544,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-E652-48E5-8DC5-8F8BDE9F38FF}"/>
+                  <c16:uniqueId val="{00000007-371F-4B5D-A12C-C32834A4BBED}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2600,9 +2560,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2630,9 +2590,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$46:$I$54</c:f>
+              <c:f>BSBM!$I$45:$I$52</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -2643,21 +2603,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -2665,43 +2622,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$M$46:$M$54</c:f>
+              <c:f>BSBM!$M$45:$M$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>9.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>1069.31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1069</c:v>
+                  <c:v>3978.47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3978</c:v>
+                  <c:v>214.66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>214</c:v>
+                  <c:v>29.93</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>5.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E652-48E5-8DC5-8F8BDE9F38FF}"/>
+              <c16:uniqueId val="{00000008-371F-4B5D-A12C-C32834A4BBED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2710,11 +2664,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSBM!$N$45</c:f>
+              <c:f>BSBM!$N$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SNV-CouchBase</c:v>
+                  <c:v>JSON-SNV (Couchbase)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2750,7 +2704,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2772,9 +2730,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$46:$I$54</c:f>
+              <c:f>BSBM!$I$45:$I$52</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -2785,21 +2743,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -2807,10 +2762,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$N$46:$N$54</c:f>
+              <c:f>BSBM!$N$45:$N$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>6.89</c:v>
                 </c:pt>
@@ -2821,21 +2776,18 @@
                   <c:v>11.56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.77</c:v>
+                  <c:v>2415.54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2415.54</c:v>
+                  <c:v>8721.32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8721.32</c:v>
+                  <c:v>1331.98</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1331.98</c:v>
+                  <c:v>37.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>8.7899999999999991</c:v>
                 </c:pt>
               </c:numCache>
@@ -2843,7 +2795,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-E652-48E5-8DC5-8F8BDE9F38FF}"/>
+              <c16:uniqueId val="{0000000A-371F-4B5D-A12C-C32834A4BBED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2852,11 +2804,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSBM!$O$45</c:f>
+              <c:f>BSBM!$O$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CNV-MongoDB</c:v>
+                  <c:v>JSON-CNV (MongoDB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2892,7 +2844,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2914,9 +2870,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$46:$I$54</c:f>
+              <c:f>BSBM!$I$45:$I$52</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -2927,21 +2883,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -2949,10 +2902,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$O$46:$O$54</c:f>
+              <c:f>BSBM!$O$45:$O$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>28.7</c:v>
                 </c:pt>
@@ -2963,21 +2916,18 @@
                   <c:v>41.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9499999999999993</c:v>
+                  <c:v>7.15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.15</c:v>
+                  <c:v>37.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.21</c:v>
+                  <c:v>7.49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.49</c:v>
+                  <c:v>41.12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.12</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>12.51</c:v>
                 </c:pt>
               </c:numCache>
@@ -2985,7 +2935,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E652-48E5-8DC5-8F8BDE9F38FF}"/>
+              <c16:uniqueId val="{0000000C-371F-4B5D-A12C-C32834A4BBED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2994,11 +2944,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSBM!$P$45</c:f>
+              <c:f>BSBM!$P$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CNV-CouchBase</c:v>
+                  <c:v>JSON-CNV (Couchbase)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3034,7 +2984,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -3056,9 +3010,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$46:$I$54</c:f>
+              <c:f>BSBM!$I$45:$I$52</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -3069,21 +3023,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -3091,10 +3042,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$P$46:$P$54</c:f>
+              <c:f>BSBM!$P$45:$P$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>39.44</c:v>
                 </c:pt>
@@ -3105,21 +3056,18 @@
                   <c:v>72.31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.18</c:v>
+                  <c:v>36.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.11</c:v>
+                  <c:v>44.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.12</c:v>
+                  <c:v>11.58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.58</c:v>
+                  <c:v>71.239999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>71.239999999999995</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>19.87</c:v>
                 </c:pt>
               </c:numCache>
@@ -3127,7 +3075,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-E652-48E5-8DC5-8F8BDE9F38FF}"/>
+              <c16:uniqueId val="{0000000E-371F-4B5D-A12C-C32834A4BBED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3136,11 +3084,11 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSBM!$Q$45</c:f>
+              <c:f>BSBM!$Q$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DL-MongoDB</c:v>
+                  <c:v>JSON-DT (MongoDB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3180,7 +3128,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -3202,9 +3154,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$46:$I$54</c:f>
+              <c:f>BSBM!$I$45:$I$52</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -3215,21 +3167,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -3237,10 +3186,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$Q$46:$Q$54</c:f>
+              <c:f>BSBM!$Q$45:$Q$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3263,9 +3212,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
@@ -3273,7 +3219,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-E652-48E5-8DC5-8F8BDE9F38FF}"/>
+              <c16:uniqueId val="{00000010-371F-4B5D-A12C-C32834A4BBED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3282,11 +3228,11 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSBM!$R$45</c:f>
+              <c:f>BSBM!$R$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DL-CouchBase</c:v>
+                  <c:v>JSON-DT (Couchbase)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3326,7 +3272,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -3348,9 +3298,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$46:$I$54</c:f>
+              <c:f>BSBM!$I$45:$I$52</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -3361,21 +3311,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -3383,10 +3330,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$R$46:$R$54</c:f>
+              <c:f>BSBM!$R$45:$R$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3409,9 +3356,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>51.37</c:v>
                 </c:pt>
               </c:numCache>
@@ -3419,7 +3363,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-E652-48E5-8DC5-8F8BDE9F38FF}"/>
+              <c16:uniqueId val="{00000012-371F-4B5D-A12C-C32834A4BBED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3468,10 +3412,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3611,7 +3552,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.9317722948141591E-2"/>
+          <c:y val="0.73048827806235428"/>
+          <c:w val="0.91418209356685542"/>
+          <c:h val="0.23525164297760551"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3627,10 +3577,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
@@ -3748,7 +3695,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSBM!$J$115</c:f>
+              <c:f>BSBM!$J$113</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3787,12 +3734,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3832,9 +3776,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$116:$I$124</c:f>
+              <c:f>BSBM!$I$114:$I$121</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -3845,21 +3789,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -3867,10 +3808,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$J$116:$J$124</c:f>
+              <c:f>BSBM!$J$114:$J$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>87.94</c:v>
                 </c:pt>
@@ -3881,21 +3822,18 @@
                   <c:v>61.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>117.48</c:v>
+                  <c:v>817.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>817.64</c:v>
+                  <c:v>379.52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>379.52</c:v>
+                  <c:v>35.979999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.979999999999997</c:v>
+                  <c:v>77.260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>77.260000000000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>11.97</c:v>
                 </c:pt>
               </c:numCache>
@@ -3903,7 +3841,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-878E-4B21-AD14-D90F808BE128}"/>
+              <c16:uniqueId val="{00000014-20E6-4546-BCD6-F23E9CAE9D55}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3912,7 +3850,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSBM!$K$115</c:f>
+              <c:f>BSBM!$K$113</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3953,12 +3891,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3998,9 +3933,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$116:$I$124</c:f>
+              <c:f>BSBM!$I$114:$I$121</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -4011,21 +3946,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -4033,10 +3965,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$K$116:$K$124</c:f>
+              <c:f>BSBM!$K$114:$K$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>79.47</c:v>
                 </c:pt>
@@ -4047,21 +3979,18 @@
                   <c:v>89.97</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.72</c:v>
+                  <c:v>754.84</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>754.84</c:v>
+                  <c:v>333.48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>333.48</c:v>
+                  <c:v>41.68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41.68</c:v>
+                  <c:v>97.64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97.64</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>8.39</c:v>
                 </c:pt>
               </c:numCache>
@@ -4069,7 +3998,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-878E-4B21-AD14-D90F808BE128}"/>
+              <c16:uniqueId val="{00000016-20E6-4546-BCD6-F23E9CAE9D55}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4078,7 +4007,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSBM!$L$115</c:f>
+              <c:f>BSBM!$L$113</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4120,12 +4049,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4152,9 +4078,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$116:$I$124</c:f>
+              <c:f>BSBM!$I$114:$I$121</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -4165,21 +4091,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -4187,10 +4110,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$L$116:$L$124</c:f>
+              <c:f>BSBM!$L$114:$L$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>431.77</c:v>
                 </c:pt>
@@ -4201,21 +4124,18 @@
                   <c:v>177.58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>227.48</c:v>
+                  <c:v>1735.15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1735.15</c:v>
+                  <c:v>342.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>342.85</c:v>
+                  <c:v>343.67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>343.67</c:v>
+                  <c:v>351.29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>351.29</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>173.29</c:v>
                 </c:pt>
               </c:numCache>
@@ -4223,7 +4143,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-878E-4B21-AD14-D90F808BE128}"/>
+              <c16:uniqueId val="{00000018-20E6-4546-BCD6-F23E9CAE9D55}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4232,11 +4152,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSBM!$M$115</c:f>
+              <c:f>BSBM!$M$113</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SNV-MongoDB</c:v>
+                  <c:v>JSON-SNV (MongoDB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4280,7 +4200,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-878E-4B21-AD14-D90F808BE128}"/>
+                  <c16:uniqueId val="{0000001A-20E6-4546-BCD6-F23E9CAE9D55}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4296,9 +4216,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4326,9 +4246,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$116:$I$124</c:f>
+              <c:f>BSBM!$I$114:$I$121</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -4339,21 +4259,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -4361,43 +4278,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$M$116:$M$124</c:f>
+              <c:f>BSBM!$M$114:$M$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>11</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>9.5399999999999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>14.76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>1864.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1864</c:v>
+                  <c:v>4357.88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4357</c:v>
+                  <c:v>439</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>439</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>8.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-878E-4B21-AD14-D90F808BE128}"/>
+              <c16:uniqueId val="{0000001B-20E6-4546-BCD6-F23E9CAE9D55}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4406,11 +4320,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSBM!$N$115</c:f>
+              <c:f>BSBM!$N$113</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SNV-CouchBase</c:v>
+                  <c:v>JSON-SNV (Couchbase)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4446,7 +4360,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -4468,9 +4386,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$116:$I$124</c:f>
+              <c:f>BSBM!$I$114:$I$121</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -4481,21 +4399,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -4503,10 +4418,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$N$116:$N$124</c:f>
+              <c:f>BSBM!$N$114:$N$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>16.79</c:v>
                 </c:pt>
@@ -4517,21 +4432,18 @@
                   <c:v>29.48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.84</c:v>
+                  <c:v>3674.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3674.24</c:v>
+                  <c:v>9457.56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9457.56</c:v>
+                  <c:v>1864.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1864.35</c:v>
+                  <c:v>81.34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.34</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -4539,7 +4451,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-878E-4B21-AD14-D90F808BE128}"/>
+              <c16:uniqueId val="{0000001D-20E6-4546-BCD6-F23E9CAE9D55}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4548,11 +4460,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSBM!$O$115</c:f>
+              <c:f>BSBM!$O$113</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CNV-MongoDB</c:v>
+                  <c:v>JSON-CNV (MongoDB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4588,7 +4500,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -4610,9 +4526,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$116:$I$124</c:f>
+              <c:f>BSBM!$I$114:$I$121</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -4623,21 +4539,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -4645,10 +4558,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$O$116:$O$124</c:f>
+              <c:f>BSBM!$O$114:$O$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>32.17</c:v>
                 </c:pt>
@@ -4659,21 +4572,18 @@
                   <c:v>66.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.13</c:v>
+                  <c:v>11.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.21</c:v>
+                  <c:v>39.119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.119999999999997</c:v>
+                  <c:v>9.9700000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.9700000000000006</c:v>
+                  <c:v>57.85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57.85</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>16.190000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -4681,7 +4591,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-878E-4B21-AD14-D90F808BE128}"/>
+              <c16:uniqueId val="{0000001F-20E6-4546-BCD6-F23E9CAE9D55}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4690,11 +4600,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSBM!$P$115</c:f>
+              <c:f>BSBM!$P$113</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CNV-CouchBase</c:v>
+                  <c:v>JSON-CNV (Couchbase)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4730,7 +4640,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -4752,9 +4666,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$116:$I$124</c:f>
+              <c:f>BSBM!$I$114:$I$121</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -4765,21 +4679,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -4787,10 +4698,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$P$116:$P$124</c:f>
+              <c:f>BSBM!$P$114:$P$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>47.35</c:v>
                 </c:pt>
@@ -4801,21 +4712,18 @@
                   <c:v>98.14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.21</c:v>
+                  <c:v>38.14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.14</c:v>
+                  <c:v>57.61</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.61</c:v>
+                  <c:v>16.72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.72</c:v>
+                  <c:v>92.14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>92.14</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>26.47</c:v>
                 </c:pt>
               </c:numCache>
@@ -4823,7 +4731,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-878E-4B21-AD14-D90F808BE128}"/>
+              <c16:uniqueId val="{00000021-20E6-4546-BCD6-F23E9CAE9D55}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4832,11 +4740,11 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSBM!$Q$115</c:f>
+              <c:f>BSBM!$Q$113</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DL-MongoDB</c:v>
+                  <c:v>JSON-DT (MongoDB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4876,7 +4784,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -4898,9 +4810,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$116:$I$124</c:f>
+              <c:f>BSBM!$I$114:$I$121</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -4911,21 +4823,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -4933,10 +4842,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$Q$116:$Q$124</c:f>
+              <c:f>BSBM!$Q$114:$Q$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4959,9 +4868,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
@@ -4969,7 +4875,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-878E-4B21-AD14-D90F808BE128}"/>
+              <c16:uniqueId val="{00000023-20E6-4546-BCD6-F23E9CAE9D55}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4978,11 +4884,11 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>BSBM!$R$115</c:f>
+              <c:f>BSBM!$R$113</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DL-CouchBase</c:v>
+                  <c:v>JSON-DT (Couchbase)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5022,7 +4928,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -5044,9 +4954,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>BSBM!$I$116:$I$124</c:f>
+              <c:f>BSBM!$I$114:$I$121</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>Q1</c:v>
                 </c:pt>
@@ -5057,21 +4967,18 @@
                   <c:v>Q4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Q7</c:v>
+                  <c:v>Q10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Q10</c:v>
+                  <c:v>Q11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Q11</c:v>
+                  <c:v>Q16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Q16</c:v>
+                  <c:v>Q18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Q18</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>Q20</c:v>
                 </c:pt>
               </c:strCache>
@@ -5079,10 +4986,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BSBM!$R$116:$R$124</c:f>
+              <c:f>BSBM!$R$114:$R$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5105,9 +5012,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>62.94</c:v>
                 </c:pt>
               </c:numCache>
@@ -5115,7 +5019,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-878E-4B21-AD14-D90F808BE128}"/>
+              <c16:uniqueId val="{00000025-20E6-4546-BCD6-F23E9CAE9D55}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5164,10 +5068,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5307,7 +5208,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.9317722948141591E-2"/>
+          <c:y val="0.73048827806235428"/>
+          <c:w val="0.91418209356685542"/>
+          <c:h val="0.23525164297760551"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5323,10 +5233,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
@@ -5419,8 +5326,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.7333387812333668E-2"/>
-          <c:y val="1.7241772782332854E-2"/>
+          <c:x val="2.0250386543052227E-2"/>
+          <c:y val="9.2020997375328092E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5483,12 +5390,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5593,7 +5497,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-901F-4A2A-9066-45112A88C385}"/>
+              <c16:uniqueId val="{00000014-5C31-49F2-BC0F-7B12F24DD973}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5643,12 +5547,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5753,7 +5654,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-901F-4A2A-9066-45112A88C385}"/>
+              <c16:uniqueId val="{00000016-5C31-49F2-BC0F-7B12F24DD973}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5804,12 +5705,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5901,7 +5799,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-901F-4A2A-9066-45112A88C385}"/>
+              <c16:uniqueId val="{00000018-5C31-49F2-BC0F-7B12F24DD973}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5914,7 +5812,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SNV-MongoDB</c:v>
+                  <c:v>JSON-SNV (MongoDB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5958,7 +5856,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-901F-4A2A-9066-45112A88C385}"/>
+                  <c16:uniqueId val="{0000001A-5C31-49F2-BC0F-7B12F24DD973}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5974,9 +5872,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6069,7 +5967,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-901F-4A2A-9066-45112A88C385}"/>
+              <c16:uniqueId val="{0000001B-5C31-49F2-BC0F-7B12F24DD973}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6082,7 +5980,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SNV-CouchBase</c:v>
+                  <c:v>JSON-SNV (Couchbase)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6118,7 +6016,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -6177,7 +6079,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>34.24</c:v>
+                  <c:v>29.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11.52</c:v>
@@ -6205,7 +6107,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-901F-4A2A-9066-45112A88C385}"/>
+              <c16:uniqueId val="{0000001D-5C31-49F2-BC0F-7B12F24DD973}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6218,7 +6120,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CNV-MongoDB</c:v>
+                  <c:v>JSON-CNV (MongoDB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6254,7 +6156,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -6313,35 +6219,35 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>35.6</c:v>
+                  <c:v>55.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.09</c:v>
+                  <c:v>36.090000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.51</c:v>
+                  <c:v>29.51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.74</c:v>
+                  <c:v>25.74</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.24</c:v>
+                  <c:v>31.24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.11</c:v>
+                  <c:v>32.11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>811.52</c:v>
+                  <c:v>851.52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>667.33</c:v>
+                  <c:v>697.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-901F-4A2A-9066-45112A88C385}"/>
+              <c16:uniqueId val="{0000001F-5C31-49F2-BC0F-7B12F24DD973}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6354,7 +6260,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CNV-CouchBase</c:v>
+                  <c:v>JSON-CNV (Couchbase)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6390,7 +6296,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -6449,35 +6359,35 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>41.87</c:v>
+                  <c:v>61.87</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.77</c:v>
+                  <c:v>81.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.73</c:v>
+                  <c:v>38.729999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.13</c:v>
+                  <c:v>26.13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.08</c:v>
+                  <c:v>33.08</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.87</c:v>
+                  <c:v>34.869999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>847.34</c:v>
+                  <c:v>887.34</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>701.94</c:v>
+                  <c:v>741.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-901F-4A2A-9066-45112A88C385}"/>
+              <c16:uniqueId val="{00000021-5C31-49F2-BC0F-7B12F24DD973}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6490,7 +6400,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DL-MongoDB</c:v>
+                  <c:v>JSON-DT (MongoDB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6530,7 +6440,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -6617,7 +6531,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-901F-4A2A-9066-45112A88C385}"/>
+              <c16:uniqueId val="{00000023-5C31-49F2-BC0F-7B12F24DD973}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6630,7 +6544,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DL-CouchBase</c:v>
+                  <c:v>JSON-DT (Couchbase)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6670,7 +6584,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -6757,7 +6675,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-901F-4A2A-9066-45112A88C385}"/>
+              <c16:uniqueId val="{00000025-5C31-49F2-BC0F-7B12F24DD973}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6806,10 +6724,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -6949,7 +6864,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.931771795930658E-2"/>
+          <c:y val="0.81980264377035283"/>
+          <c:w val="0.91418209356685542"/>
+          <c:h val="0.17719759498687188"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6965,10 +6889,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
@@ -7061,8 +6982,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.6493723609254923E-2"/>
-          <c:y val="1.7241780497649396E-2"/>
+          <c:x val="2.0250386543052227E-2"/>
+          <c:y val="9.2020997375328092E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7125,12 +7046,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7235,7 +7153,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D236-4693-9A84-AD732CDD5DA1}"/>
+              <c16:uniqueId val="{00000027-316E-4D55-9000-F3A7B81EB428}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7285,12 +7203,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7395,7 +7310,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D236-4693-9A84-AD732CDD5DA1}"/>
+              <c16:uniqueId val="{00000029-316E-4D55-9000-F3A7B81EB428}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7446,12 +7361,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7543,7 +7455,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D236-4693-9A84-AD732CDD5DA1}"/>
+              <c16:uniqueId val="{0000002B-316E-4D55-9000-F3A7B81EB428}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7556,7 +7468,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SNV-MongoDB</c:v>
+                  <c:v>JSON-SNV (MongoDB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7600,7 +7512,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-D236-4693-9A84-AD732CDD5DA1}"/>
+                  <c16:uniqueId val="{0000002D-316E-4D55-9000-F3A7B81EB428}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -7616,9 +7528,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7689,7 +7601,7 @@
                   <c:v>11.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.22</c:v>
+                  <c:v>6.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>237.99</c:v>
@@ -7711,7 +7623,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D236-4693-9A84-AD732CDD5DA1}"/>
+              <c16:uniqueId val="{0000002E-316E-4D55-9000-F3A7B81EB428}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7724,7 +7636,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SNV-CouchBase</c:v>
+                  <c:v>JSON-SNV (Couchbase)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7760,7 +7672,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -7847,7 +7763,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-D236-4693-9A84-AD732CDD5DA1}"/>
+              <c16:uniqueId val="{00000030-316E-4D55-9000-F3A7B81EB428}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7860,7 +7776,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CNV-MongoDB</c:v>
+                  <c:v>JSON-CNV (MongoDB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7896,7 +7812,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -7955,22 +7875,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>41.2</c:v>
+                  <c:v>61.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.22</c:v>
+                  <c:v>88.22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.47</c:v>
+                  <c:v>32.47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.11</c:v>
+                  <c:v>39.11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.89</c:v>
+                  <c:v>43.89</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.57</c:v>
+                  <c:v>41.57</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1107.9000000000001</c:v>
@@ -7983,7 +7903,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-D236-4693-9A84-AD732CDD5DA1}"/>
+              <c16:uniqueId val="{00000032-316E-4D55-9000-F3A7B81EB428}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7996,7 +7916,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CNV-CouchBase</c:v>
+                  <c:v>JSON-CNV (Couchbase)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8032,7 +7952,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -8091,22 +8015,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>44.53</c:v>
+                  <c:v>74.53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.119999999999997</c:v>
+                  <c:v>97.12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.87</c:v>
+                  <c:v>59.87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.67</c:v>
+                  <c:v>39.67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.24</c:v>
+                  <c:v>55.24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.329999999999998</c:v>
+                  <c:v>68.33</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1337.78</c:v>
@@ -8119,7 +8043,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-D236-4693-9A84-AD732CDD5DA1}"/>
+              <c16:uniqueId val="{00000034-316E-4D55-9000-F3A7B81EB428}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8132,7 +8056,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DL-MongoDB</c:v>
+                  <c:v>JSON-DT (MongoDB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8172,7 +8096,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -8259,7 +8187,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-D236-4693-9A84-AD732CDD5DA1}"/>
+              <c16:uniqueId val="{00000036-316E-4D55-9000-F3A7B81EB428}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8272,7 +8200,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DL-CouchBase</c:v>
+                  <c:v>JSON-DT (Couchbase)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8312,7 +8240,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -8399,7 +8331,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-D236-4693-9A84-AD732CDD5DA1}"/>
+              <c16:uniqueId val="{00000038-316E-4D55-9000-F3A7B81EB428}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8448,10 +8380,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -8591,7 +8520,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.931771795930658E-2"/>
+          <c:y val="0.81980264377035283"/>
+          <c:w val="0.91418209356685542"/>
+          <c:h val="0.17719759498687188"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8607,10 +8545,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
@@ -8703,8 +8638,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.6493723609254923E-2"/>
-          <c:y val="2.2924752969688725E-2"/>
+          <c:x val="2.0250386543052227E-2"/>
+          <c:y val="9.2020997375328092E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -8767,12 +8702,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -8792,7 +8724,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8877,7 +8808,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1C4F-4E5C-B8BE-48F30855B56F}"/>
+              <c16:uniqueId val="{00000014-D816-4B61-ADC6-ED204D25EB96}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8927,12 +8858,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -8952,7 +8880,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9037,7 +8964,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1C4F-4E5C-B8BE-48F30855B56F}"/>
+              <c16:uniqueId val="{00000016-D816-4B61-ADC6-ED204D25EB96}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9088,12 +9015,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -9113,7 +9037,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -9185,7 +9108,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1C4F-4E5C-B8BE-48F30855B56F}"/>
+              <c16:uniqueId val="{00000018-D816-4B61-ADC6-ED204D25EB96}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9198,7 +9121,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SNV-MongoDB</c:v>
+                  <c:v>JSON-SNV (MongoDB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9229,7 +9152,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -9238,11 +9160,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1C4F-4E5C-B8BE-48F30855B56F}"/>
+                  <c16:uniqueId val="{0000001A-D816-4B61-ADC6-ED204D25EB96}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -9258,9 +9178,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -9281,7 +9201,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -9353,7 +9272,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1C4F-4E5C-B8BE-48F30855B56F}"/>
+              <c16:uniqueId val="{0000001B-D816-4B61-ADC6-ED204D25EB96}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9366,7 +9285,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SNV-CouchBase</c:v>
+                  <c:v>JSON-SNV (Couchbase)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9402,7 +9321,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -9417,7 +9340,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -9489,7 +9411,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-1C4F-4E5C-B8BE-48F30855B56F}"/>
+              <c16:uniqueId val="{0000001D-D816-4B61-ADC6-ED204D25EB96}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9502,7 +9424,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CNV-MongoDB</c:v>
+                  <c:v>JSON-CNV (MongoDB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9538,7 +9460,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -9553,7 +9479,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -9597,22 +9522,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>68.12</c:v>
+                  <c:v>98.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34.56</c:v>
+                  <c:v>74.56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.89</c:v>
+                  <c:v>49.89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.12</c:v>
+                  <c:v>41.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.739999999999998</c:v>
+                  <c:v>48.74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.03</c:v>
+                  <c:v>44.03</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2789.33</c:v>
@@ -9625,7 +9550,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-1C4F-4E5C-B8BE-48F30855B56F}"/>
+              <c16:uniqueId val="{0000001F-D816-4B61-ADC6-ED204D25EB96}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9638,7 +9563,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CNV-CouchBase</c:v>
+                  <c:v>JSON-CNV (Couchbase)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9674,7 +9599,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -9689,7 +9618,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -9733,22 +9661,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>87.66</c:v>
+                  <c:v>187.66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.28</c:v>
+                  <c:v>151.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.36</c:v>
+                  <c:v>126.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.8</c:v>
+                  <c:v>112.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.440000000000001</c:v>
+                  <c:v>119.44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.17</c:v>
+                  <c:v>123.17</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3124.11</c:v>
@@ -9761,7 +9689,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-1C4F-4E5C-B8BE-48F30855B56F}"/>
+              <c16:uniqueId val="{00000021-D816-4B61-ADC6-ED204D25EB96}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9774,7 +9702,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DL-MongoDB</c:v>
+                  <c:v>JSON-DT (MongoDB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9814,7 +9742,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -9829,7 +9761,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -9901,7 +9832,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-1C4F-4E5C-B8BE-48F30855B56F}"/>
+              <c16:uniqueId val="{00000023-D816-4B61-ADC6-ED204D25EB96}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9914,7 +9845,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DL-CouchBase</c:v>
+                  <c:v>JSON-DT (Couchbase)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9954,7 +9885,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -9969,7 +9904,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -10041,7 +9975,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-1C4F-4E5C-B8BE-48F30855B56F}"/>
+              <c16:uniqueId val="{00000025-D816-4B61-ADC6-ED204D25EB96}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10090,10 +10024,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -10233,7 +10164,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.931771795930658E-2"/>
+          <c:y val="0.81980264377035283"/>
+          <c:w val="0.91418209356685542"/>
+          <c:h val="0.17719759498687188"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10249,10 +10189,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
@@ -10345,8 +10282,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.7333387812333668E-2"/>
-          <c:y val="1.7241772782332854E-2"/>
+          <c:x val="6.6772477579313634E-3"/>
+          <c:y val="2.2924742711367328E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -10409,12 +10346,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -10434,7 +10368,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10519,7 +10452,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2255-48A5-ACB2-80156D945F10}"/>
+              <c16:uniqueId val="{00000001-05F6-4ACE-AA6D-65823D2E160E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10569,12 +10502,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -10594,7 +10524,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10679,7 +10608,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2255-48A5-ACB2-80156D945F10}"/>
+              <c16:uniqueId val="{00000003-05F6-4ACE-AA6D-65823D2E160E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10730,12 +10659,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -10755,7 +10681,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -10827,7 +10752,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2255-48A5-ACB2-80156D945F10}"/>
+              <c16:uniqueId val="{00000005-05F6-4ACE-AA6D-65823D2E160E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10840,7 +10765,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SNV-MongoDB</c:v>
+                  <c:v>JSON-SNV (MongoDB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10871,7 +10796,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:dLblPos val="outEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -10880,11 +10804,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-2255-48A5-ACB2-80156D945F10}"/>
+                  <c16:uniqueId val="{00000007-05F6-4ACE-AA6D-65823D2E160E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -10900,9 +10822,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
+                      <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -10923,7 +10845,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -10995,7 +10916,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2255-48A5-ACB2-80156D945F10}"/>
+              <c16:uniqueId val="{00000008-05F6-4ACE-AA6D-65823D2E160E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11008,7 +10929,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SNV-CouchBase</c:v>
+                  <c:v>JSON-SNV (Couchbase)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11044,7 +10965,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -11059,7 +10984,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -11131,7 +11055,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-2255-48A5-ACB2-80156D945F10}"/>
+              <c16:uniqueId val="{0000000A-05F6-4ACE-AA6D-65823D2E160E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11144,7 +11068,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CNV-MongoDB</c:v>
+                  <c:v>JSON-CNV (MongoDB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11180,7 +11104,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -11195,7 +11123,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -11267,7 +11194,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-2255-48A5-ACB2-80156D945F10}"/>
+              <c16:uniqueId val="{0000000C-05F6-4ACE-AA6D-65823D2E160E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11280,7 +11207,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>CNV-CouchBase</c:v>
+                  <c:v>JSON-CNV (Couchbase)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11316,7 +11243,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -11331,7 +11262,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -11403,7 +11333,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-2255-48A5-ACB2-80156D945F10}"/>
+              <c16:uniqueId val="{0000000E-05F6-4ACE-AA6D-65823D2E160E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11416,7 +11346,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DL-MongoDB</c:v>
+                  <c:v>JSON-DT (MongoDB)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11456,7 +11386,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -11471,7 +11405,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -11543,7 +11476,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-2255-48A5-ACB2-80156D945F10}"/>
+              <c16:uniqueId val="{00000010-05F6-4ACE-AA6D-65823D2E160E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11556,7 +11489,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DL-CouchBase</c:v>
+                  <c:v>JSON-DT (Couchbase)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11596,7 +11529,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1400">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -11611,7 +11548,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
@@ -11683,7 +11619,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-2255-48A5-ACB2-80156D945F10}"/>
+              <c16:uniqueId val="{00000012-05F6-4ACE-AA6D-65823D2E160E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11732,10 +11668,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
@@ -11875,7 +11808,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.9317722948141591E-2"/>
+          <c:y val="0.73048827806235428"/>
+          <c:w val="0.91418209356685542"/>
+          <c:h val="0.23525164297760551"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11891,10 +11833,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
@@ -11939,16 +11878,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1461407</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1359</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>10583</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>10582</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>881439</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11970,15 +11909,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>54430</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>108856</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>901699</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>183092</xdr:rowOff>
+      <xdr:colOff>956129</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12001,16 +11940,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>901699</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>183092</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>915305</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12046,8 +11985,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>878416</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>193675</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12078,8 +12017,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>878416</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>193675</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12110,8 +12049,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>878416</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>193675</xdr:rowOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12170,125 +12109,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="D-BSBM"/>
-      <sheetName val="D-Watdiv"/>
-      <sheetName val="D-FishMark"/>
-      <sheetName val="D-SP2b"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>Virtuoso (row)</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>Virtuoso (column)</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>Blazegraph</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>MongoDB</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>Q1</v>
-          </cell>
-          <cell r="C4">
-            <v>2168</v>
-          </cell>
-          <cell r="D4">
-            <v>1930</v>
-          </cell>
-          <cell r="E4">
-            <v>1874</v>
-          </cell>
-          <cell r="F4">
-            <v>2423</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Q2</v>
-          </cell>
-          <cell r="C5">
-            <v>439588</v>
-          </cell>
-          <cell r="D5">
-            <v>309002</v>
-          </cell>
-          <cell r="E5">
-            <v>67720</v>
-          </cell>
-          <cell r="F5">
-            <v>2783</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>Q3a</v>
-          </cell>
-          <cell r="C6">
-            <v>29242</v>
-          </cell>
-          <cell r="D6">
-            <v>10157</v>
-          </cell>
-          <cell r="E6">
-            <v>11345</v>
-          </cell>
-          <cell r="F6">
-            <v>1400</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Q3b</v>
-          </cell>
-          <cell r="C7">
-            <v>5612</v>
-          </cell>
-          <cell r="D7">
-            <v>178</v>
-          </cell>
-          <cell r="E7">
-            <v>4713</v>
-          </cell>
-          <cell r="F7">
-            <v>1228</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>Q3c</v>
-          </cell>
-          <cell r="C8">
-            <v>5517</v>
-          </cell>
-          <cell r="D8">
-            <v>1273</v>
-          </cell>
-          <cell r="E8">
-            <v>2224</v>
-          </cell>
-          <cell r="F8">
-            <v>853</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12492,10 +12312,915 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="H4:R124"/>
+  <dimension ref="H4:R121"/>
   <sheetViews>
-    <sheetView topLeftCell="E94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G135" sqref="G135"/>
+    <sheetView tabSelected="1" topLeftCell="E103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M122" sqref="M122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="8" width="22.28515625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="16" style="23" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" style="23" customWidth="1"/>
+    <col min="11" max="13" width="22.28515625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="24.42578125" style="23" customWidth="1"/>
+    <col min="15" max="26" width="22.28515625" style="23" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="20"/>
+      <c r="I5" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="25">
+        <v>31.09</v>
+      </c>
+      <c r="K5" s="25">
+        <v>27.79</v>
+      </c>
+      <c r="L5" s="25">
+        <v>127.87</v>
+      </c>
+      <c r="M5" s="26">
+        <v>5.13</v>
+      </c>
+      <c r="N5" s="23">
+        <v>7.68</v>
+      </c>
+      <c r="O5" s="23">
+        <v>25.51</v>
+      </c>
+      <c r="P5" s="23">
+        <v>29.91</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>24899</v>
+      </c>
+      <c r="R5" s="23">
+        <v>3209.45</v>
+      </c>
+    </row>
+    <row r="6" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="25">
+        <v>19.47</v>
+      </c>
+      <c r="K6" s="25">
+        <v>14.25</v>
+      </c>
+      <c r="L6" s="25">
+        <v>318.77</v>
+      </c>
+      <c r="M6" s="26">
+        <v>3.84</v>
+      </c>
+      <c r="N6" s="23">
+        <v>6.65</v>
+      </c>
+      <c r="O6" s="23">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="P6" s="23">
+        <v>19.21</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>6</v>
+      </c>
+      <c r="R6" s="23">
+        <v>15.11</v>
+      </c>
+    </row>
+    <row r="7" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="20"/>
+      <c r="I7" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="25">
+        <v>16.89</v>
+      </c>
+      <c r="K7" s="25">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="L7" s="25">
+        <v>153.08000000000001</v>
+      </c>
+      <c r="M7" s="26">
+        <v>7.09</v>
+      </c>
+      <c r="N7" s="23">
+        <v>9.67</v>
+      </c>
+      <c r="O7" s="23">
+        <v>19.98</v>
+      </c>
+      <c r="P7" s="23">
+        <v>22.68</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>2711</v>
+      </c>
+      <c r="R7" s="23">
+        <v>3654.64</v>
+      </c>
+    </row>
+    <row r="8" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="25">
+        <v>195.98</v>
+      </c>
+      <c r="K8" s="25">
+        <v>8363</v>
+      </c>
+      <c r="L8" s="25">
+        <v>549.32000000000005</v>
+      </c>
+      <c r="M8" s="23">
+        <v>846.33</v>
+      </c>
+      <c r="N8" s="23">
+        <v>1880.66</v>
+      </c>
+      <c r="O8" s="23">
+        <v>9.1</v>
+      </c>
+      <c r="P8" s="23">
+        <v>34.49</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>4448</v>
+      </c>
+      <c r="R8" s="23">
+        <v>3323.75</v>
+      </c>
+    </row>
+    <row r="9" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="25">
+        <v>119.76</v>
+      </c>
+      <c r="K9" s="25">
+        <v>111.86</v>
+      </c>
+      <c r="L9" s="25">
+        <v>1149.54</v>
+      </c>
+      <c r="M9" s="23">
+        <v>3848.11</v>
+      </c>
+      <c r="N9" s="23">
+        <v>8230.09</v>
+      </c>
+      <c r="O9" s="23">
+        <v>28.29</v>
+      </c>
+      <c r="P9" s="23">
+        <v>47.13</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>0</v>
+      </c>
+      <c r="R9" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="25">
+        <v>26.79</v>
+      </c>
+      <c r="K10" s="25">
+        <v>29.53</v>
+      </c>
+      <c r="L10" s="25">
+        <v>147.80000000000001</v>
+      </c>
+      <c r="M10" s="23">
+        <v>197.83</v>
+      </c>
+      <c r="N10" s="23">
+        <v>1117.28</v>
+      </c>
+      <c r="O10" s="23">
+        <v>5.7</v>
+      </c>
+      <c r="P10" s="23">
+        <v>8.52</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>0</v>
+      </c>
+      <c r="R10" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="25">
+        <v>37.44</v>
+      </c>
+      <c r="K11" s="25">
+        <v>41.83</v>
+      </c>
+      <c r="L11" s="25">
+        <v>129.02000000000001</v>
+      </c>
+      <c r="M11" s="23">
+        <v>26.37</v>
+      </c>
+      <c r="N11" s="23">
+        <v>35.270000000000003</v>
+      </c>
+      <c r="O11" s="23">
+        <v>37.18</v>
+      </c>
+      <c r="P11" s="23">
+        <v>52.41</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>0</v>
+      </c>
+      <c r="R11" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="25">
+        <v>4.21</v>
+      </c>
+      <c r="K12" s="25">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="L12" s="25">
+        <v>117.67</v>
+      </c>
+      <c r="M12" s="23">
+        <v>4.12</v>
+      </c>
+      <c r="N12" s="23">
+        <v>9.67</v>
+      </c>
+      <c r="O12" s="23">
+        <v>14.34</v>
+      </c>
+      <c r="P12" s="23">
+        <v>21.07</v>
+      </c>
+      <c r="Q12" s="23">
+        <v>8</v>
+      </c>
+      <c r="R12" s="23">
+        <v>12.22</v>
+      </c>
+    </row>
+    <row r="44" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L44" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M44" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N44" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O44" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="P44" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q44" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="R44" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H45" s="20"/>
+      <c r="I45" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J45" s="25">
+        <v>38.83</v>
+      </c>
+      <c r="K45" s="25">
+        <v>34.409999999999997</v>
+      </c>
+      <c r="L45" s="25">
+        <v>239.81</v>
+      </c>
+      <c r="M45" s="26">
+        <v>4.51</v>
+      </c>
+      <c r="N45" s="23">
+        <v>6.89</v>
+      </c>
+      <c r="O45" s="23">
+        <v>28.7</v>
+      </c>
+      <c r="P45" s="23">
+        <v>39.44</v>
+      </c>
+      <c r="Q45" s="23">
+        <v>0</v>
+      </c>
+      <c r="R45" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H46" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="25">
+        <v>41.25</v>
+      </c>
+      <c r="K46" s="25">
+        <v>23.67</v>
+      </c>
+      <c r="L46" s="25">
+        <v>368.84</v>
+      </c>
+      <c r="M46" s="26">
+        <v>5.48</v>
+      </c>
+      <c r="N46" s="23">
+        <v>7.73</v>
+      </c>
+      <c r="O46" s="23">
+        <v>23.16</v>
+      </c>
+      <c r="P46" s="23">
+        <v>27.81</v>
+      </c>
+      <c r="Q46" s="23">
+        <v>9</v>
+      </c>
+      <c r="R46" s="23">
+        <v>19.77</v>
+      </c>
+    </row>
+    <row r="47" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H47" s="20"/>
+      <c r="I47" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" s="25">
+        <v>24.1</v>
+      </c>
+      <c r="K47" s="25">
+        <v>28.34</v>
+      </c>
+      <c r="L47" s="25">
+        <v>157.13</v>
+      </c>
+      <c r="M47" s="26">
+        <v>9.16</v>
+      </c>
+      <c r="N47" s="23">
+        <v>11.56</v>
+      </c>
+      <c r="O47" s="23">
+        <v>41.17</v>
+      </c>
+      <c r="P47" s="23">
+        <v>72.31</v>
+      </c>
+      <c r="Q47" s="23">
+        <v>0</v>
+      </c>
+      <c r="R47" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="I48" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" s="25">
+        <v>392.35</v>
+      </c>
+      <c r="K48" s="25">
+        <v>192.84</v>
+      </c>
+      <c r="L48" s="25">
+        <v>1245.48</v>
+      </c>
+      <c r="M48" s="23">
+        <v>1069.31</v>
+      </c>
+      <c r="N48" s="23">
+        <v>2415.54</v>
+      </c>
+      <c r="O48" s="23">
+        <v>7.15</v>
+      </c>
+      <c r="P48" s="23">
+        <v>36.11</v>
+      </c>
+      <c r="Q48" s="23">
+        <v>0</v>
+      </c>
+      <c r="R48" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="9:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="I49" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="25">
+        <v>192.58</v>
+      </c>
+      <c r="K49" s="25">
+        <v>167.26</v>
+      </c>
+      <c r="L49" s="25">
+        <v>204.72</v>
+      </c>
+      <c r="M49" s="23">
+        <v>3978.47</v>
+      </c>
+      <c r="N49" s="23">
+        <v>8721.32</v>
+      </c>
+      <c r="O49" s="23">
+        <v>37.21</v>
+      </c>
+      <c r="P49" s="23">
+        <v>44.12</v>
+      </c>
+      <c r="Q49" s="23">
+        <v>0</v>
+      </c>
+      <c r="R49" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="9:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="I50" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="25">
+        <v>27.37</v>
+      </c>
+      <c r="K50" s="25">
+        <v>35.770000000000003</v>
+      </c>
+      <c r="L50" s="25">
+        <v>203.72</v>
+      </c>
+      <c r="M50" s="23">
+        <v>214.66</v>
+      </c>
+      <c r="N50" s="23">
+        <v>1331.98</v>
+      </c>
+      <c r="O50" s="23">
+        <v>7.49</v>
+      </c>
+      <c r="P50" s="23">
+        <v>11.58</v>
+      </c>
+      <c r="Q50" s="23">
+        <v>0</v>
+      </c>
+      <c r="R50" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="9:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="I51" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="25">
+        <v>39.130000000000003</v>
+      </c>
+      <c r="K51" s="25">
+        <v>45.74</v>
+      </c>
+      <c r="L51" s="25">
+        <v>175.81</v>
+      </c>
+      <c r="M51" s="23">
+        <v>29.93</v>
+      </c>
+      <c r="N51" s="23">
+        <v>37.25</v>
+      </c>
+      <c r="O51" s="23">
+        <v>41.12</v>
+      </c>
+      <c r="P51" s="23">
+        <v>71.239999999999995</v>
+      </c>
+      <c r="Q51" s="23">
+        <v>0</v>
+      </c>
+      <c r="R51" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="9:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="I52" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="25">
+        <v>4.09</v>
+      </c>
+      <c r="K52" s="25">
+        <v>4.55</v>
+      </c>
+      <c r="L52" s="25">
+        <v>148.72999999999999</v>
+      </c>
+      <c r="M52" s="23">
+        <v>5.84</v>
+      </c>
+      <c r="N52" s="23">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="O52" s="23">
+        <v>12.51</v>
+      </c>
+      <c r="P52" s="23">
+        <v>19.87</v>
+      </c>
+      <c r="Q52" s="23">
+        <v>37</v>
+      </c>
+      <c r="R52" s="23">
+        <v>51.37</v>
+      </c>
+    </row>
+    <row r="113" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K113" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L113" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="M113" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N113" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O113" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="P113" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q113" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="R113" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H114" s="20"/>
+      <c r="I114" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J114" s="25">
+        <v>87.94</v>
+      </c>
+      <c r="K114" s="25">
+        <v>79.47</v>
+      </c>
+      <c r="L114" s="25">
+        <v>431.77</v>
+      </c>
+      <c r="M114" s="26">
+        <v>11.27</v>
+      </c>
+      <c r="N114" s="23">
+        <v>16.79</v>
+      </c>
+      <c r="O114" s="23">
+        <v>32.17</v>
+      </c>
+      <c r="P114" s="23">
+        <v>47.35</v>
+      </c>
+      <c r="Q114" s="23">
+        <v>0</v>
+      </c>
+      <c r="R114" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H115" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I115" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J115" s="25">
+        <v>55.71</v>
+      </c>
+      <c r="K115" s="25">
+        <v>39.76</v>
+      </c>
+      <c r="L115" s="25">
+        <v>403.72</v>
+      </c>
+      <c r="M115" s="26">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="N115" s="23">
+        <v>24.17</v>
+      </c>
+      <c r="O115" s="23">
+        <v>31.31</v>
+      </c>
+      <c r="P115" s="23">
+        <v>38.51</v>
+      </c>
+      <c r="Q115" s="23">
+        <v>39</v>
+      </c>
+      <c r="R115" s="23">
+        <v>44.34</v>
+      </c>
+    </row>
+    <row r="116" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="H116" s="20"/>
+      <c r="I116" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J116" s="25">
+        <v>61.77</v>
+      </c>
+      <c r="K116" s="25">
+        <v>89.97</v>
+      </c>
+      <c r="L116" s="25">
+        <v>177.58</v>
+      </c>
+      <c r="M116" s="26">
+        <v>14.76</v>
+      </c>
+      <c r="N116" s="23">
+        <v>29.48</v>
+      </c>
+      <c r="O116" s="23">
+        <v>66.17</v>
+      </c>
+      <c r="P116" s="23">
+        <v>98.14</v>
+      </c>
+      <c r="Q116" s="23">
+        <v>0</v>
+      </c>
+      <c r="R116" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="I117" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J117" s="25">
+        <v>817.64</v>
+      </c>
+      <c r="K117" s="25">
+        <v>754.84</v>
+      </c>
+      <c r="L117" s="25">
+        <v>1735.15</v>
+      </c>
+      <c r="M117" s="23">
+        <v>1864.13</v>
+      </c>
+      <c r="N117" s="23">
+        <v>3674.24</v>
+      </c>
+      <c r="O117" s="23">
+        <v>11.21</v>
+      </c>
+      <c r="P117" s="23">
+        <v>38.14</v>
+      </c>
+      <c r="Q117" s="23">
+        <v>0</v>
+      </c>
+      <c r="R117" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="I118" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J118" s="25">
+        <v>379.52</v>
+      </c>
+      <c r="K118" s="25">
+        <v>333.48</v>
+      </c>
+      <c r="L118" s="25">
+        <v>342.85</v>
+      </c>
+      <c r="M118" s="23">
+        <v>4357.88</v>
+      </c>
+      <c r="N118" s="23">
+        <v>9457.56</v>
+      </c>
+      <c r="O118" s="23">
+        <v>39.119999999999997</v>
+      </c>
+      <c r="P118" s="23">
+        <v>57.61</v>
+      </c>
+      <c r="Q118" s="23">
+        <v>0</v>
+      </c>
+      <c r="R118" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="I119" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J119" s="25">
+        <v>35.979999999999997</v>
+      </c>
+      <c r="K119" s="25">
+        <v>41.68</v>
+      </c>
+      <c r="L119" s="25">
+        <v>343.67</v>
+      </c>
+      <c r="M119" s="23">
+        <v>439</v>
+      </c>
+      <c r="N119" s="23">
+        <v>1864.35</v>
+      </c>
+      <c r="O119" s="23">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="P119" s="23">
+        <v>16.72</v>
+      </c>
+      <c r="Q119" s="23">
+        <v>0</v>
+      </c>
+      <c r="R119" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="I120" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="J120" s="25">
+        <v>77.260000000000005</v>
+      </c>
+      <c r="K120" s="25">
+        <v>97.64</v>
+      </c>
+      <c r="L120" s="25">
+        <v>351.29</v>
+      </c>
+      <c r="M120" s="23">
+        <v>27</v>
+      </c>
+      <c r="N120" s="23">
+        <v>81.34</v>
+      </c>
+      <c r="O120" s="23">
+        <v>57.85</v>
+      </c>
+      <c r="P120" s="23">
+        <v>92.14</v>
+      </c>
+      <c r="Q120" s="23">
+        <v>0</v>
+      </c>
+      <c r="R120" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="8:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="I121" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J121" s="25">
+        <v>11.97</v>
+      </c>
+      <c r="K121" s="25">
+        <v>8.39</v>
+      </c>
+      <c r="L121" s="25">
+        <v>173.29</v>
+      </c>
+      <c r="M121" s="23">
+        <v>8.34</v>
+      </c>
+      <c r="N121" s="23">
+        <v>15</v>
+      </c>
+      <c r="O121" s="23">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="P121" s="23">
+        <v>26.47</v>
+      </c>
+      <c r="Q121" s="23">
+        <v>49</v>
+      </c>
+      <c r="R121" s="23">
+        <v>62.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="H4:R88"/>
+  <sheetViews>
+    <sheetView topLeftCell="G7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T83" sqref="T83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -12521,1281 +13246,282 @@
         <v>2</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H5" s="1"/>
       <c r="I5" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J5" s="8">
-        <v>31.09</v>
+        <v>111.52</v>
       </c>
       <c r="K5" s="8">
-        <v>27.79</v>
+        <v>98.54</v>
       </c>
       <c r="L5" s="8">
-        <v>127.87</v>
-      </c>
-      <c r="M5" s="10">
-        <v>5</v>
-      </c>
-      <c r="N5" s="9">
-        <v>7.68</v>
-      </c>
-      <c r="O5" s="9">
-        <v>25.51</v>
-      </c>
-      <c r="P5" s="9">
-        <v>29.91</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>24899</v>
-      </c>
-      <c r="R5" s="9">
-        <v>3209.45</v>
+        <v>142.68</v>
+      </c>
+      <c r="M5" s="9">
+        <v>21.27</v>
+      </c>
+      <c r="N5" s="8">
+        <v>29.24</v>
+      </c>
+      <c r="O5" s="8">
+        <v>55.6</v>
+      </c>
+      <c r="P5" s="8">
+        <v>61.87</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>124.85</v>
+      </c>
+      <c r="R5" s="8">
+        <v>130.05000000000001</v>
       </c>
     </row>
     <row r="6" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H6" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J6" s="8">
-        <v>19.47</v>
+        <v>312.20999999999998</v>
       </c>
       <c r="K6" s="8">
-        <v>14.25</v>
+        <v>198.34</v>
       </c>
       <c r="L6" s="8">
-        <v>318.77</v>
-      </c>
-      <c r="M6" s="10">
-        <v>3</v>
-      </c>
-      <c r="N6" s="9">
-        <v>6.65</v>
-      </c>
-      <c r="O6" s="9">
-        <v>17.559999999999999</v>
-      </c>
-      <c r="P6" s="9">
-        <v>19.21</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>6</v>
-      </c>
-      <c r="R6" s="9">
-        <v>15.11</v>
+        <v>720.33</v>
+      </c>
+      <c r="M6" s="9">
+        <v>9.24</v>
+      </c>
+      <c r="N6" s="8">
+        <v>11.52</v>
+      </c>
+      <c r="O6" s="8">
+        <v>36.090000000000003</v>
+      </c>
+      <c r="P6" s="8">
+        <v>81.77</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>556.46</v>
+      </c>
+      <c r="R6" s="8">
+        <v>607.77</v>
       </c>
     </row>
     <row r="7" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H7" s="1"/>
       <c r="I7" s="6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J7" s="8">
-        <v>16.89</v>
+        <v>885.13</v>
       </c>
       <c r="K7" s="8">
-        <v>16.690000000000001</v>
+        <v>694.4</v>
       </c>
       <c r="L7" s="8">
-        <v>153.08000000000001</v>
-      </c>
-      <c r="M7" s="10">
-        <v>7</v>
-      </c>
-      <c r="N7" s="9">
-        <v>9.67</v>
-      </c>
-      <c r="O7" s="9">
-        <v>19.98</v>
-      </c>
-      <c r="P7" s="9">
-        <v>22.68</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>2711</v>
-      </c>
-      <c r="R7" s="9">
-        <v>3654.64</v>
+        <v>2478.2399999999998</v>
+      </c>
+      <c r="M7" s="9">
+        <v>5.87</v>
+      </c>
+      <c r="N7" s="8">
+        <v>8.34</v>
+      </c>
+      <c r="O7" s="8">
+        <v>29.51</v>
+      </c>
+      <c r="P7" s="8">
+        <v>38.729999999999997</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>412.54</v>
+      </c>
+      <c r="R7" s="8">
+        <v>487.64</v>
       </c>
     </row>
     <row r="8" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="8">
-        <v>22.72</v>
-      </c>
-      <c r="K8" s="8">
-        <v>23.03</v>
-      </c>
-      <c r="L8" s="8">
-        <v>128.62</v>
-      </c>
-      <c r="M8" s="9">
-        <v>7</v>
-      </c>
-      <c r="N8" s="9">
-        <v>11.77</v>
-      </c>
-      <c r="O8" s="9">
-        <v>7.21</v>
-      </c>
-      <c r="P8" s="9">
-        <v>19.690000000000001</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>3660</v>
-      </c>
-      <c r="R8" s="9">
-        <v>3192.27</v>
+        <v>6</v>
+      </c>
+      <c r="J8" s="7">
+        <v>256.24</v>
+      </c>
+      <c r="K8" s="7">
+        <v>243.67</v>
+      </c>
+      <c r="L8" s="7">
+        <v>161.24</v>
+      </c>
+      <c r="M8" s="8">
+        <v>198.29</v>
+      </c>
+      <c r="N8" s="8">
+        <v>238.28</v>
+      </c>
+      <c r="O8" s="8">
+        <v>25.74</v>
+      </c>
+      <c r="P8" s="8">
+        <v>26.13</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>3789.68</v>
+      </c>
+      <c r="R8" s="8">
+        <v>4100.6099999999997</v>
       </c>
     </row>
     <row r="9" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="8">
-        <v>195.98</v>
-      </c>
-      <c r="K9" s="8">
-        <v>8363</v>
-      </c>
-      <c r="L9" s="8">
-        <v>549.32000000000005</v>
-      </c>
-      <c r="M9" s="9">
-        <v>846</v>
-      </c>
-      <c r="N9" s="9">
-        <v>1880.66</v>
-      </c>
-      <c r="O9" s="9">
-        <v>9.1</v>
-      </c>
-      <c r="P9" s="9">
-        <v>34.49</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>4448</v>
-      </c>
-      <c r="R9" s="9">
-        <v>3323.75</v>
+        <v>10</v>
+      </c>
+      <c r="J9" s="7">
+        <v>717.12</v>
+      </c>
+      <c r="K9" s="7">
+        <v>693.1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>450.15</v>
+      </c>
+      <c r="M9" s="8">
+        <v>577.21</v>
+      </c>
+      <c r="N9" s="8">
+        <v>599.66999999999996</v>
+      </c>
+      <c r="O9" s="8">
+        <v>31.24</v>
+      </c>
+      <c r="P9" s="8">
+        <v>33.08</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>4887.87</v>
+      </c>
+      <c r="R9" s="8">
+        <v>5097.34</v>
       </c>
     </row>
     <row r="10" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="8">
-        <v>119.76</v>
-      </c>
-      <c r="K10" s="8">
-        <v>111.86</v>
-      </c>
-      <c r="L10" s="8">
-        <v>1149.54</v>
-      </c>
-      <c r="M10" s="9">
-        <v>3848</v>
-      </c>
-      <c r="N10" s="9">
-        <v>8230.09</v>
-      </c>
-      <c r="O10" s="9">
-        <v>28.29</v>
-      </c>
-      <c r="P10" s="9">
-        <v>47.13</v>
-      </c>
-      <c r="Q10" s="9">
+        <v>13</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1011.89</v>
+      </c>
+      <c r="K10" s="7">
+        <v>867.94</v>
+      </c>
+      <c r="L10" s="7">
+        <v>618.77</v>
+      </c>
+      <c r="M10" s="8">
+        <v>798.38</v>
+      </c>
+      <c r="N10" s="8">
+        <v>808.38</v>
+      </c>
+      <c r="O10" s="8">
+        <v>32.11</v>
+      </c>
+      <c r="P10" s="8">
+        <v>34.869999999999997</v>
+      </c>
+      <c r="Q10" s="8">
         <v>0</v>
       </c>
-      <c r="R10" s="9">
+      <c r="R10" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="8">
-        <v>26.79</v>
-      </c>
-      <c r="K11" s="8">
-        <v>29.53</v>
-      </c>
-      <c r="L11" s="8">
-        <v>147.80000000000001</v>
-      </c>
-      <c r="M11" s="9">
-        <v>197</v>
-      </c>
-      <c r="N11" s="9">
-        <v>1117.28</v>
-      </c>
-      <c r="O11" s="9">
-        <v>5.7</v>
-      </c>
-      <c r="P11" s="9">
-        <v>8.52</v>
-      </c>
-      <c r="Q11" s="9">
+        <v>8</v>
+      </c>
+      <c r="J11" s="7">
+        <v>273.22000000000003</v>
+      </c>
+      <c r="K11" s="7">
+        <v>444.21</v>
+      </c>
+      <c r="L11" s="7">
+        <v>2053.39</v>
+      </c>
+      <c r="M11" s="8">
+        <v>708.33</v>
+      </c>
+      <c r="N11" s="8">
+        <v>737.67</v>
+      </c>
+      <c r="O11" s="8">
+        <v>851.52</v>
+      </c>
+      <c r="P11" s="8">
+        <v>887.34</v>
+      </c>
+      <c r="Q11" s="8">
         <v>0</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="8">
-        <v>37.44</v>
-      </c>
-      <c r="K12" s="8">
-        <v>41.83</v>
-      </c>
-      <c r="L12" s="8">
-        <v>129.02000000000001</v>
-      </c>
-      <c r="M12" s="9">
-        <v>26</v>
-      </c>
-      <c r="N12" s="9">
-        <v>35.270000000000003</v>
-      </c>
-      <c r="O12" s="9">
-        <v>37.18</v>
-      </c>
-      <c r="P12" s="9">
-        <v>52.41</v>
-      </c>
-      <c r="Q12" s="9">
+        <v>17</v>
+      </c>
+      <c r="J12" s="7">
+        <v>148.36000000000001</v>
+      </c>
+      <c r="K12" s="7">
+        <v>264.87</v>
+      </c>
+      <c r="L12" s="7">
+        <v>448.47</v>
+      </c>
+      <c r="M12" s="8">
+        <v>582.4</v>
+      </c>
+      <c r="N12" s="8">
+        <v>668.92</v>
+      </c>
+      <c r="O12" s="8">
+        <v>697.33</v>
+      </c>
+      <c r="P12" s="8">
+        <v>741.94</v>
+      </c>
+      <c r="Q12" s="8">
         <v>0</v>
       </c>
-      <c r="R12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="8">
-        <v>4.21</v>
-      </c>
-      <c r="K13" s="8">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="L13" s="8">
-        <v>117.67</v>
-      </c>
-      <c r="M13" s="9">
-        <v>4</v>
-      </c>
-      <c r="N13" s="9">
-        <v>9.67</v>
-      </c>
-      <c r="O13" s="9">
-        <v>14.34</v>
-      </c>
-      <c r="P13" s="9">
-        <v>21.07</v>
-      </c>
-      <c r="Q13" s="9">
-        <v>8</v>
-      </c>
-      <c r="R13" s="9">
-        <v>12.22</v>
-      </c>
-    </row>
-    <row r="45" spans="8:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R45" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="8:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="H46" s="1"/>
-      <c r="I46" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J46" s="8">
-        <v>38.83</v>
-      </c>
-      <c r="K46" s="8">
-        <v>34.409999999999997</v>
-      </c>
-      <c r="L46" s="8">
-        <v>239.81</v>
-      </c>
-      <c r="M46" s="10">
-        <v>4</v>
-      </c>
-      <c r="N46" s="9">
-        <v>6.89</v>
-      </c>
-      <c r="O46" s="9">
-        <v>28.7</v>
-      </c>
-      <c r="P46" s="9">
-        <v>39.44</v>
-      </c>
-      <c r="Q46" s="9">
-        <v>0</v>
-      </c>
-      <c r="R46" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="8:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="H47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J47" s="8">
-        <v>41.25</v>
-      </c>
-      <c r="K47" s="8">
-        <v>23.67</v>
-      </c>
-      <c r="L47" s="8">
-        <v>368.84</v>
-      </c>
-      <c r="M47" s="10">
-        <v>5</v>
-      </c>
-      <c r="N47" s="9">
-        <v>7.73</v>
-      </c>
-      <c r="O47" s="9">
-        <v>23.16</v>
-      </c>
-      <c r="P47" s="9">
-        <v>27.81</v>
-      </c>
-      <c r="Q47" s="9">
-        <v>9</v>
-      </c>
-      <c r="R47" s="9">
-        <v>19.77</v>
-      </c>
-    </row>
-    <row r="48" spans="8:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="H48" s="1"/>
-      <c r="I48" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="8">
-        <v>24.1</v>
-      </c>
-      <c r="K48" s="8">
-        <v>28.34</v>
-      </c>
-      <c r="L48" s="8">
-        <v>157.13</v>
-      </c>
-      <c r="M48" s="10">
-        <v>9</v>
-      </c>
-      <c r="N48" s="9">
-        <v>11.56</v>
-      </c>
-      <c r="O48" s="9">
-        <v>41.17</v>
-      </c>
-      <c r="P48" s="9">
-        <v>72.31</v>
-      </c>
-      <c r="Q48" s="9">
-        <v>0</v>
-      </c>
-      <c r="R48" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="9:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="I49" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J49" s="8">
-        <v>53.61</v>
-      </c>
-      <c r="K49" s="8">
-        <v>47.03</v>
-      </c>
-      <c r="L49" s="8">
-        <v>174.47</v>
-      </c>
-      <c r="M49" s="9">
-        <v>6</v>
-      </c>
-      <c r="N49" s="9">
-        <v>10.77</v>
-      </c>
-      <c r="O49" s="9">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="P49" s="9">
-        <v>29.18</v>
-      </c>
-      <c r="Q49" s="9">
-        <v>0</v>
-      </c>
-      <c r="R49" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="9:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="I50" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J50" s="8">
-        <v>392.35</v>
-      </c>
-      <c r="K50" s="8">
-        <v>192.84</v>
-      </c>
-      <c r="L50" s="8">
-        <v>1245.48</v>
-      </c>
-      <c r="M50" s="9">
-        <v>1069</v>
-      </c>
-      <c r="N50" s="9">
-        <v>2415.54</v>
-      </c>
-      <c r="O50" s="9">
-        <v>7.15</v>
-      </c>
-      <c r="P50" s="9">
-        <v>36.11</v>
-      </c>
-      <c r="Q50" s="9">
-        <v>0</v>
-      </c>
-      <c r="R50" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="9:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="I51" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J51" s="8">
-        <v>192.58</v>
-      </c>
-      <c r="K51" s="8">
-        <v>167.26</v>
-      </c>
-      <c r="L51" s="8">
-        <v>204.72</v>
-      </c>
-      <c r="M51" s="9">
-        <v>3978</v>
-      </c>
-      <c r="N51" s="9">
-        <v>8721.32</v>
-      </c>
-      <c r="O51" s="9">
-        <v>37.21</v>
-      </c>
-      <c r="P51" s="9">
-        <v>44.12</v>
-      </c>
-      <c r="Q51" s="9">
-        <v>0</v>
-      </c>
-      <c r="R51" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="9:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="I52" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J52" s="8">
-        <v>27.37</v>
-      </c>
-      <c r="K52" s="8">
-        <v>35.770000000000003</v>
-      </c>
-      <c r="L52" s="8">
-        <v>203.72</v>
-      </c>
-      <c r="M52" s="9">
-        <v>214</v>
-      </c>
-      <c r="N52" s="9">
-        <v>1331.98</v>
-      </c>
-      <c r="O52" s="9">
-        <v>7.49</v>
-      </c>
-      <c r="P52" s="9">
-        <v>11.58</v>
-      </c>
-      <c r="Q52" s="9">
-        <v>0</v>
-      </c>
-      <c r="R52" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="9:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="I53" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J53" s="8">
-        <v>39.130000000000003</v>
-      </c>
-      <c r="K53" s="8">
-        <v>45.74</v>
-      </c>
-      <c r="L53" s="8">
-        <v>175.81</v>
-      </c>
-      <c r="M53" s="9">
-        <v>29</v>
-      </c>
-      <c r="N53" s="9">
-        <v>37.25</v>
-      </c>
-      <c r="O53" s="9">
-        <v>41.12</v>
-      </c>
-      <c r="P53" s="9">
-        <v>71.239999999999995</v>
-      </c>
-      <c r="Q53" s="9">
-        <v>0</v>
-      </c>
-      <c r="R53" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="9:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="I54" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J54" s="8">
-        <v>4.09</v>
-      </c>
-      <c r="K54" s="8">
-        <v>4.55</v>
-      </c>
-      <c r="L54" s="8">
-        <v>148.72999999999999</v>
-      </c>
-      <c r="M54" s="9">
-        <v>5</v>
-      </c>
-      <c r="N54" s="9">
-        <v>8.7899999999999991</v>
-      </c>
-      <c r="O54" s="9">
-        <v>12.51</v>
-      </c>
-      <c r="P54" s="9">
-        <v>19.87</v>
-      </c>
-      <c r="Q54" s="9">
-        <v>37</v>
-      </c>
-      <c r="R54" s="9">
-        <v>51.37</v>
-      </c>
-    </row>
-    <row r="115" spans="8:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K115" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L115" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M115" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N115" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O115" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P115" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q115" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R115" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="8:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="H116" s="1"/>
-      <c r="I116" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J116" s="8">
-        <v>87.94</v>
-      </c>
-      <c r="K116" s="8">
-        <v>79.47</v>
-      </c>
-      <c r="L116" s="8">
-        <v>431.77</v>
-      </c>
-      <c r="M116" s="10">
-        <v>11</v>
-      </c>
-      <c r="N116" s="9">
-        <v>16.79</v>
-      </c>
-      <c r="O116" s="9">
-        <v>32.17</v>
-      </c>
-      <c r="P116" s="9">
-        <v>47.35</v>
-      </c>
-      <c r="Q116" s="9">
-        <v>0</v>
-      </c>
-      <c r="R116" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="8:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="H117" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I117" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J117" s="8">
-        <v>55.71</v>
-      </c>
-      <c r="K117" s="8">
-        <v>39.76</v>
-      </c>
-      <c r="L117" s="8">
-        <v>403.72</v>
-      </c>
-      <c r="M117" s="10">
-        <v>9</v>
-      </c>
-      <c r="N117" s="9">
-        <v>24.17</v>
-      </c>
-      <c r="O117" s="9">
-        <v>31.31</v>
-      </c>
-      <c r="P117" s="9">
-        <v>38.51</v>
-      </c>
-      <c r="Q117" s="9">
-        <v>39</v>
-      </c>
-      <c r="R117" s="9">
-        <v>44.34</v>
-      </c>
-    </row>
-    <row r="118" spans="8:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="H118" s="1"/>
-      <c r="I118" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J118" s="8">
-        <v>61.77</v>
-      </c>
-      <c r="K118" s="8">
-        <v>89.97</v>
-      </c>
-      <c r="L118" s="8">
-        <v>177.58</v>
-      </c>
-      <c r="M118" s="10">
-        <v>14</v>
-      </c>
-      <c r="N118" s="9">
-        <v>29.48</v>
-      </c>
-      <c r="O118" s="9">
-        <v>66.17</v>
-      </c>
-      <c r="P118" s="9">
-        <v>98.14</v>
-      </c>
-      <c r="Q118" s="9">
-        <v>0</v>
-      </c>
-      <c r="R118" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="8:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="I119" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J119" s="8">
-        <v>117.48</v>
-      </c>
-      <c r="K119" s="8">
-        <v>91.72</v>
-      </c>
-      <c r="L119" s="8">
-        <v>227.48</v>
-      </c>
-      <c r="M119" s="9">
-        <v>9</v>
-      </c>
-      <c r="N119" s="9">
-        <v>12.84</v>
-      </c>
-      <c r="O119" s="9">
-        <v>19.13</v>
-      </c>
-      <c r="P119" s="9">
-        <v>34.21</v>
-      </c>
-      <c r="Q119" s="9">
-        <v>0</v>
-      </c>
-      <c r="R119" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="8:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="I120" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J120" s="8">
-        <v>817.64</v>
-      </c>
-      <c r="K120" s="8">
-        <v>754.84</v>
-      </c>
-      <c r="L120" s="8">
-        <v>1735.15</v>
-      </c>
-      <c r="M120" s="9">
-        <v>1864</v>
-      </c>
-      <c r="N120" s="9">
-        <v>3674.24</v>
-      </c>
-      <c r="O120" s="9">
-        <v>11.21</v>
-      </c>
-      <c r="P120" s="9">
-        <v>38.14</v>
-      </c>
-      <c r="Q120" s="9">
-        <v>0</v>
-      </c>
-      <c r="R120" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="8:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="I121" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J121" s="8">
-        <v>379.52</v>
-      </c>
-      <c r="K121" s="8">
-        <v>333.48</v>
-      </c>
-      <c r="L121" s="8">
-        <v>342.85</v>
-      </c>
-      <c r="M121" s="9">
-        <v>4357</v>
-      </c>
-      <c r="N121" s="9">
-        <v>9457.56</v>
-      </c>
-      <c r="O121" s="9">
-        <v>39.119999999999997</v>
-      </c>
-      <c r="P121" s="9">
-        <v>57.61</v>
-      </c>
-      <c r="Q121" s="9">
-        <v>0</v>
-      </c>
-      <c r="R121" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="8:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="I122" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J122" s="8">
-        <v>35.979999999999997</v>
-      </c>
-      <c r="K122" s="8">
-        <v>41.68</v>
-      </c>
-      <c r="L122" s="8">
-        <v>343.67</v>
-      </c>
-      <c r="M122" s="9">
-        <v>439</v>
-      </c>
-      <c r="N122" s="9">
-        <v>1864.35</v>
-      </c>
-      <c r="O122" s="9">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="P122" s="9">
-        <v>16.72</v>
-      </c>
-      <c r="Q122" s="9">
-        <v>0</v>
-      </c>
-      <c r="R122" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="8:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="I123" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J123" s="8">
-        <v>77.260000000000005</v>
-      </c>
-      <c r="K123" s="8">
-        <v>97.64</v>
-      </c>
-      <c r="L123" s="8">
-        <v>351.29</v>
-      </c>
-      <c r="M123" s="9">
-        <v>37</v>
-      </c>
-      <c r="N123" s="9">
-        <v>81.34</v>
-      </c>
-      <c r="O123" s="9">
-        <v>57.85</v>
-      </c>
-      <c r="P123" s="9">
-        <v>92.14</v>
-      </c>
-      <c r="Q123" s="9">
-        <v>0</v>
-      </c>
-      <c r="R123" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="8:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="I124" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J124" s="8">
-        <v>11.97</v>
-      </c>
-      <c r="K124" s="8">
-        <v>8.39</v>
-      </c>
-      <c r="L124" s="8">
-        <v>173.29</v>
-      </c>
-      <c r="M124" s="9">
-        <v>8</v>
-      </c>
-      <c r="N124" s="9">
-        <v>15</v>
-      </c>
-      <c r="O124" s="9">
-        <v>16.190000000000001</v>
-      </c>
-      <c r="P124" s="9">
-        <v>26.47</v>
-      </c>
-      <c r="Q124" s="9">
-        <v>49</v>
-      </c>
-      <c r="R124" s="9">
-        <v>62.94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="H4:R88"/>
-  <sheetViews>
-    <sheetView topLeftCell="G67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I108" sqref="I108"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="8" width="22.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="13" width="22.28515625" customWidth="1"/>
-    <col min="14" max="14" width="24.42578125" customWidth="1"/>
-    <col min="15" max="26" width="22.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H5" s="1"/>
-      <c r="I5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="9">
-        <v>111.52</v>
-      </c>
-      <c r="K5" s="9">
-        <v>98.54</v>
-      </c>
-      <c r="L5" s="9">
-        <v>142.68</v>
-      </c>
-      <c r="M5" s="10">
-        <v>21.27</v>
-      </c>
-      <c r="N5" s="9">
-        <v>34.24</v>
-      </c>
-      <c r="O5" s="9">
-        <v>35.6</v>
-      </c>
-      <c r="P5" s="9">
-        <v>41.87</v>
-      </c>
-      <c r="Q5" s="9">
-        <v>124.85</v>
-      </c>
-      <c r="R5" s="9">
-        <v>130.05000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="9">
-        <v>312.20999999999998</v>
-      </c>
-      <c r="K6" s="9">
-        <v>198.34</v>
-      </c>
-      <c r="L6" s="9">
-        <v>720.33</v>
-      </c>
-      <c r="M6" s="10">
-        <v>9.24</v>
-      </c>
-      <c r="N6" s="9">
-        <v>11.52</v>
-      </c>
-      <c r="O6" s="9">
-        <v>16.09</v>
-      </c>
-      <c r="P6" s="9">
-        <v>21.77</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>556.46</v>
-      </c>
-      <c r="R6" s="9">
-        <v>607.77</v>
-      </c>
-    </row>
-    <row r="7" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H7" s="1"/>
-      <c r="I7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="9">
-        <v>885.13</v>
-      </c>
-      <c r="K7" s="9">
-        <v>694.4</v>
-      </c>
-      <c r="L7" s="9">
-        <v>2478.2399999999998</v>
-      </c>
-      <c r="M7" s="10">
-        <v>5.87</v>
-      </c>
-      <c r="N7" s="9">
-        <v>8.34</v>
-      </c>
-      <c r="O7" s="9">
-        <v>9.51</v>
-      </c>
-      <c r="P7" s="9">
-        <v>18.73</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>412.54</v>
-      </c>
-      <c r="R7" s="9">
-        <v>487.64</v>
-      </c>
-    </row>
-    <row r="8" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="8">
-        <v>256.24</v>
-      </c>
-      <c r="K8" s="8">
-        <v>243.67</v>
-      </c>
-      <c r="L8" s="8">
-        <v>161.24</v>
-      </c>
-      <c r="M8" s="9">
-        <v>198.29</v>
-      </c>
-      <c r="N8" s="9">
-        <v>238.28</v>
-      </c>
-      <c r="O8" s="9">
-        <v>5.74</v>
-      </c>
-      <c r="P8" s="9">
-        <v>6.13</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>3789.68</v>
-      </c>
-      <c r="R8" s="9">
-        <v>4100.6099999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="8">
-        <v>717.12</v>
-      </c>
-      <c r="K9" s="8">
-        <v>693.1</v>
-      </c>
-      <c r="L9" s="8">
-        <v>450.15</v>
-      </c>
-      <c r="M9" s="9">
-        <v>577.21</v>
-      </c>
-      <c r="N9" s="9">
-        <v>599.66999999999996</v>
-      </c>
-      <c r="O9" s="9">
-        <v>11.24</v>
-      </c>
-      <c r="P9" s="9">
-        <v>13.08</v>
-      </c>
-      <c r="Q9" s="9">
-        <v>4887.87</v>
-      </c>
-      <c r="R9" s="9">
-        <v>5097.34</v>
-      </c>
-    </row>
-    <row r="10" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1011.89</v>
-      </c>
-      <c r="K10" s="8">
-        <v>867.94</v>
-      </c>
-      <c r="L10" s="8">
-        <v>618.77</v>
-      </c>
-      <c r="M10" s="9">
-        <v>798.38</v>
-      </c>
-      <c r="N10" s="9">
-        <v>808.38</v>
-      </c>
-      <c r="O10" s="9">
-        <v>12.11</v>
-      </c>
-      <c r="P10" s="9">
-        <v>14.87</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>0</v>
-      </c>
-      <c r="R10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="8">
-        <v>273.22000000000003</v>
-      </c>
-      <c r="K11" s="8">
-        <v>444.21</v>
-      </c>
-      <c r="L11" s="8">
-        <v>2053.39</v>
-      </c>
-      <c r="M11" s="9">
-        <v>708.33</v>
-      </c>
-      <c r="N11" s="9">
-        <v>737.67</v>
-      </c>
-      <c r="O11" s="9">
-        <v>811.52</v>
-      </c>
-      <c r="P11" s="9">
-        <v>847.34</v>
-      </c>
-      <c r="Q11" s="9">
-        <v>0</v>
-      </c>
-      <c r="R11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="8">
-        <v>148.36000000000001</v>
-      </c>
-      <c r="K12" s="8">
-        <v>264.87</v>
-      </c>
-      <c r="L12" s="8">
-        <v>448.47</v>
-      </c>
-      <c r="M12" s="9">
-        <v>582.4</v>
-      </c>
-      <c r="N12" s="9">
-        <v>668.92</v>
-      </c>
-      <c r="O12" s="9">
-        <v>667.33</v>
-      </c>
-      <c r="P12" s="9">
-        <v>701.94</v>
-      </c>
-      <c r="Q12" s="9">
-        <v>0</v>
-      </c>
-      <c r="R12" s="9">
+      <c r="R12" s="8">
         <v>0</v>
       </c>
     </row>
@@ -13813,282 +13539,282 @@
         <v>2</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H41" s="1"/>
-      <c r="I41" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J41" s="9">
+      <c r="I41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="8">
         <v>218.49</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K41" s="8">
         <v>124.03</v>
       </c>
-      <c r="L41" s="9">
+      <c r="L41" s="8">
         <v>283.66000000000003</v>
       </c>
-      <c r="M41" s="10">
+      <c r="M41" s="9">
         <v>22.55</v>
       </c>
-      <c r="N41" s="9">
+      <c r="N41" s="8">
         <v>37.01</v>
       </c>
-      <c r="O41" s="9">
-        <v>41.2</v>
-      </c>
-      <c r="P41" s="9">
-        <v>44.53</v>
-      </c>
-      <c r="Q41" s="9">
+      <c r="O41" s="8">
+        <v>61.2</v>
+      </c>
+      <c r="P41" s="8">
+        <v>74.53</v>
+      </c>
+      <c r="Q41" s="8">
         <v>296.76</v>
       </c>
-      <c r="R41" s="9">
+      <c r="R41" s="8">
         <v>377.1</v>
       </c>
     </row>
     <row r="42" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J42" s="9">
+        <v>18</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="8">
         <v>557.14</v>
       </c>
-      <c r="K42" s="9">
+      <c r="K42" s="8">
         <v>352.14</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="8">
         <v>1077.68</v>
       </c>
-      <c r="M42" s="10">
+      <c r="M42" s="9">
         <v>11.3</v>
       </c>
-      <c r="N42" s="9">
+      <c r="N42" s="8">
         <v>13.55</v>
       </c>
-      <c r="O42" s="9">
-        <v>28.22</v>
-      </c>
-      <c r="P42" s="9">
-        <v>37.119999999999997</v>
-      </c>
-      <c r="Q42" s="9">
+      <c r="O42" s="8">
+        <v>88.22</v>
+      </c>
+      <c r="P42" s="8">
+        <v>97.12</v>
+      </c>
+      <c r="Q42" s="8">
         <v>1110.24</v>
       </c>
-      <c r="R42" s="9">
+      <c r="R42" s="8">
         <v>1965.32</v>
       </c>
     </row>
     <row r="43" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H43" s="1"/>
-      <c r="I43" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J43" s="9">
+      <c r="I43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="8">
         <v>1240.6600000000001</v>
       </c>
-      <c r="K43" s="9">
+      <c r="K43" s="8">
         <v>897.44</v>
       </c>
-      <c r="L43" s="9">
+      <c r="L43" s="8">
         <v>2887.09</v>
       </c>
-      <c r="M43" s="10">
-        <v>5.22</v>
-      </c>
-      <c r="N43" s="9">
+      <c r="M43" s="9">
+        <v>6.22</v>
+      </c>
+      <c r="N43" s="8">
         <v>11.4</v>
       </c>
-      <c r="O43" s="9">
-        <v>12.47</v>
-      </c>
-      <c r="P43" s="9">
-        <v>19.87</v>
-      </c>
-      <c r="Q43" s="9">
+      <c r="O43" s="8">
+        <v>32.47</v>
+      </c>
+      <c r="P43" s="8">
+        <v>59.87</v>
+      </c>
+      <c r="Q43" s="8">
         <v>637.15</v>
       </c>
-      <c r="R43" s="9">
+      <c r="R43" s="8">
         <v>555.83000000000004</v>
       </c>
     </row>
     <row r="44" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="8">
+      <c r="I44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="7">
         <v>577.01</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K44" s="7">
         <v>641.33000000000004</v>
       </c>
-      <c r="L44" s="8">
+      <c r="L44" s="7">
         <v>371.6</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M44" s="8">
         <v>237.99</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N44" s="8">
         <v>307.33999999999997</v>
       </c>
-      <c r="O44" s="9">
-        <v>7.11</v>
-      </c>
-      <c r="P44" s="9">
-        <v>9.67</v>
-      </c>
-      <c r="Q44" s="9">
+      <c r="O44" s="8">
+        <v>39.11</v>
+      </c>
+      <c r="P44" s="8">
+        <v>39.67</v>
+      </c>
+      <c r="Q44" s="8">
         <v>0</v>
       </c>
-      <c r="R44" s="9">
+      <c r="R44" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I45" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J45" s="8">
+      <c r="I45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="7">
         <v>817.34</v>
       </c>
-      <c r="K45" s="8">
+      <c r="K45" s="7">
         <v>888.62</v>
       </c>
-      <c r="L45" s="8">
+      <c r="L45" s="7">
         <v>489.34</v>
       </c>
-      <c r="M45" s="9">
+      <c r="M45" s="8">
         <v>679.34</v>
       </c>
-      <c r="N45" s="9">
+      <c r="N45" s="8">
         <v>787.6</v>
       </c>
-      <c r="O45" s="9">
-        <v>13.89</v>
-      </c>
-      <c r="P45" s="9">
-        <v>15.24</v>
-      </c>
-      <c r="Q45" s="9">
+      <c r="O45" s="8">
+        <v>43.89</v>
+      </c>
+      <c r="P45" s="8">
+        <v>55.24</v>
+      </c>
+      <c r="Q45" s="8">
         <v>0</v>
       </c>
-      <c r="R45" s="9">
+      <c r="R45" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I46" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" s="8">
+      <c r="I46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="7">
         <v>1332.76</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K46" s="7">
         <v>1022.24</v>
       </c>
-      <c r="L46" s="8">
+      <c r="L46" s="7">
         <v>867.34</v>
       </c>
-      <c r="M46" s="9">
+      <c r="M46" s="8">
         <v>901.24</v>
       </c>
-      <c r="N46" s="9">
+      <c r="N46" s="8">
         <v>1341.81</v>
       </c>
-      <c r="O46" s="9">
-        <v>11.57</v>
-      </c>
-      <c r="P46" s="9">
-        <v>18.329999999999998</v>
-      </c>
-      <c r="Q46" s="9">
+      <c r="O46" s="8">
+        <v>41.57</v>
+      </c>
+      <c r="P46" s="8">
+        <v>68.33</v>
+      </c>
+      <c r="Q46" s="8">
         <v>0</v>
       </c>
-      <c r="R46" s="9">
+      <c r="R46" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J47" s="8">
+      <c r="I47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="7">
         <v>377.98</v>
       </c>
-      <c r="K47" s="8">
+      <c r="K47" s="7">
         <v>689.07</v>
       </c>
-      <c r="L47" s="8">
+      <c r="L47" s="7">
         <v>3761.33</v>
       </c>
-      <c r="M47" s="9">
+      <c r="M47" s="8">
         <v>1034.33</v>
       </c>
-      <c r="N47" s="9">
+      <c r="N47" s="8">
         <v>1121.03</v>
       </c>
-      <c r="O47" s="9">
+      <c r="O47" s="8">
         <v>1107.9000000000001</v>
       </c>
-      <c r="P47" s="9">
+      <c r="P47" s="8">
         <v>1337.78</v>
       </c>
-      <c r="Q47" s="9">
+      <c r="Q47" s="8">
         <v>0</v>
       </c>
-      <c r="R47" s="9">
+      <c r="R47" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I48" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J48" s="8">
+      <c r="I48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="7">
         <v>317.29000000000002</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K48" s="7">
         <v>596.37</v>
       </c>
-      <c r="L48" s="8">
+      <c r="L48" s="7">
         <v>787.37</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M48" s="8">
         <v>986.34</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N48" s="8">
         <v>1222.44</v>
       </c>
-      <c r="O48" s="9">
+      <c r="O48" s="8">
         <v>961.34</v>
       </c>
-      <c r="P48" s="9">
+      <c r="P48" s="8">
         <v>1200.8800000000001</v>
       </c>
-      <c r="Q48" s="9">
+      <c r="Q48" s="8">
         <v>0</v>
       </c>
-      <c r="R48" s="9">
+      <c r="R48" s="8">
         <v>0</v>
       </c>
     </row>
@@ -14105,282 +13831,282 @@
         <v>2</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="Q80" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="R80" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H81" s="1"/>
-      <c r="I81" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J81" s="9">
+      <c r="I81" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J81" s="8">
         <v>517.66</v>
       </c>
-      <c r="K81" s="9">
+      <c r="K81" s="8">
         <v>478.4</v>
       </c>
-      <c r="L81" s="9">
+      <c r="L81" s="8">
         <v>667.87</v>
       </c>
-      <c r="M81" s="10">
+      <c r="M81" s="9">
         <v>29.44</v>
       </c>
-      <c r="N81" s="9">
+      <c r="N81" s="8">
         <v>54.01</v>
       </c>
-      <c r="O81" s="9">
-        <v>68.12</v>
-      </c>
-      <c r="P81" s="9">
-        <v>87.66</v>
-      </c>
-      <c r="Q81" s="9">
+      <c r="O81" s="8">
+        <v>98.12</v>
+      </c>
+      <c r="P81" s="8">
+        <v>187.66</v>
+      </c>
+      <c r="Q81" s="8">
         <v>446.37</v>
       </c>
-      <c r="R81" s="9">
+      <c r="R81" s="8">
         <v>524.30999999999995</v>
       </c>
     </row>
     <row r="82" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H82" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J82" s="9">
+        <v>19</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J82" s="8">
         <v>1140.1099999999999</v>
       </c>
-      <c r="K82" s="9">
+      <c r="K82" s="8">
         <v>744.47</v>
       </c>
-      <c r="L82" s="9">
+      <c r="L82" s="8">
         <v>2451.14</v>
       </c>
-      <c r="M82" s="10">
+      <c r="M82" s="9">
         <v>15.2</v>
       </c>
-      <c r="N82" s="9">
+      <c r="N82" s="8">
         <v>19.760000000000002</v>
       </c>
-      <c r="O82" s="9">
-        <v>34.56</v>
-      </c>
-      <c r="P82" s="9">
-        <v>51.28</v>
-      </c>
-      <c r="Q82" s="9">
+      <c r="O82" s="8">
+        <v>74.56</v>
+      </c>
+      <c r="P82" s="8">
+        <v>151.28</v>
+      </c>
+      <c r="Q82" s="8">
         <v>4763.1499999999996</v>
       </c>
-      <c r="R82" s="9">
+      <c r="R82" s="8">
         <v>5217.3100000000004</v>
       </c>
     </row>
     <row r="83" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H83" s="1"/>
-      <c r="I83" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J83" s="9">
+      <c r="I83" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J83" s="8">
         <v>1875.19</v>
       </c>
-      <c r="K83" s="9">
+      <c r="K83" s="8">
         <v>1774.87</v>
       </c>
-      <c r="L83" s="9">
+      <c r="L83" s="8">
         <v>4647.33</v>
       </c>
-      <c r="M83" s="10">
+      <c r="M83" s="9">
         <v>9.08</v>
       </c>
-      <c r="N83" s="9">
+      <c r="N83" s="8">
         <v>14.37</v>
       </c>
-      <c r="O83" s="9">
-        <v>19.89</v>
-      </c>
-      <c r="P83" s="9">
-        <v>26.36</v>
-      </c>
-      <c r="Q83" s="9">
+      <c r="O83" s="8">
+        <v>49.89</v>
+      </c>
+      <c r="P83" s="8">
+        <v>126.36</v>
+      </c>
+      <c r="Q83" s="8">
         <v>2347.61</v>
       </c>
-      <c r="R83" s="9">
+      <c r="R83" s="8">
         <v>2973.15</v>
       </c>
     </row>
     <row r="84" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I84" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J84" s="8">
+      <c r="I84" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J84" s="7">
         <v>1447.58</v>
       </c>
-      <c r="K84" s="8">
+      <c r="K84" s="7">
         <v>1557.42</v>
       </c>
-      <c r="L84" s="8">
+      <c r="L84" s="7">
         <v>876.47</v>
       </c>
-      <c r="M84" s="9">
+      <c r="M84" s="8">
         <v>652.54999999999995</v>
       </c>
-      <c r="N84" s="9">
+      <c r="N84" s="8">
         <v>713.64</v>
       </c>
-      <c r="O84" s="9">
-        <v>11.12</v>
-      </c>
-      <c r="P84" s="9">
-        <v>12.8</v>
-      </c>
-      <c r="Q84" s="9">
+      <c r="O84" s="8">
+        <v>41.12</v>
+      </c>
+      <c r="P84" s="8">
+        <v>112.8</v>
+      </c>
+      <c r="Q84" s="8">
         <v>0</v>
       </c>
-      <c r="R84" s="9">
+      <c r="R84" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I85" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J85" s="8">
+      <c r="I85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J85" s="7">
         <v>1341.59</v>
       </c>
-      <c r="K85" s="8">
+      <c r="K85" s="7">
         <v>1545.52</v>
       </c>
-      <c r="L85" s="8">
+      <c r="L85" s="7">
         <v>833.46</v>
       </c>
-      <c r="M85" s="9">
+      <c r="M85" s="8">
         <v>987.31</v>
       </c>
-      <c r="N85" s="9">
+      <c r="N85" s="8">
         <v>1401.67</v>
       </c>
-      <c r="O85" s="9">
-        <v>18.739999999999998</v>
-      </c>
-      <c r="P85" s="9">
-        <v>19.440000000000001</v>
-      </c>
-      <c r="Q85" s="9">
+      <c r="O85" s="8">
+        <v>48.74</v>
+      </c>
+      <c r="P85" s="8">
+        <v>119.44</v>
+      </c>
+      <c r="Q85" s="8">
         <v>0</v>
       </c>
-      <c r="R85" s="9">
+      <c r="R85" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I86" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J86" s="8">
+      <c r="I86" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J86" s="7">
         <v>3341.39</v>
       </c>
-      <c r="K86" s="8">
+      <c r="K86" s="7">
         <v>2878.34</v>
       </c>
-      <c r="L86" s="8">
+      <c r="L86" s="7">
         <v>1437.67</v>
       </c>
-      <c r="M86" s="9">
+      <c r="M86" s="8">
         <v>1679.24</v>
       </c>
-      <c r="N86" s="9">
+      <c r="N86" s="8">
         <v>2744.55</v>
       </c>
-      <c r="O86" s="9">
-        <v>14.03</v>
-      </c>
-      <c r="P86" s="9">
-        <v>23.17</v>
-      </c>
-      <c r="Q86" s="9">
+      <c r="O86" s="8">
+        <v>44.03</v>
+      </c>
+      <c r="P86" s="8">
+        <v>123.17</v>
+      </c>
+      <c r="Q86" s="8">
         <v>0</v>
       </c>
-      <c r="R86" s="9">
+      <c r="R86" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I87" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J87" s="8">
+      <c r="I87" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J87" s="7">
         <v>667.21</v>
       </c>
-      <c r="K87" s="8">
+      <c r="K87" s="7">
         <v>879.34</v>
       </c>
-      <c r="L87" s="8">
+      <c r="L87" s="7">
         <v>0</v>
       </c>
-      <c r="M87" s="9">
+      <c r="M87" s="8">
         <v>1956.01</v>
       </c>
-      <c r="N87" s="9">
+      <c r="N87" s="8">
         <v>2121.0300000000002</v>
       </c>
-      <c r="O87" s="9">
+      <c r="O87" s="8">
         <v>2789.33</v>
       </c>
-      <c r="P87" s="9">
+      <c r="P87" s="8">
         <v>3124.11</v>
       </c>
-      <c r="Q87" s="9">
+      <c r="Q87" s="8">
         <v>0</v>
       </c>
-      <c r="R87" s="9">
+      <c r="R87" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="8:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I88" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J88" s="8">
+      <c r="I88" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" s="7">
         <v>597.21</v>
       </c>
-      <c r="K88" s="8">
+      <c r="K88" s="7">
         <v>830.07</v>
       </c>
-      <c r="L88" s="8">
+      <c r="L88" s="7">
         <v>1340.28</v>
       </c>
-      <c r="M88" s="9">
+      <c r="M88" s="8">
         <v>1882.74</v>
       </c>
-      <c r="N88" s="9">
+      <c r="N88" s="8">
         <v>2443.67</v>
       </c>
-      <c r="O88" s="9">
+      <c r="O88" s="8">
         <v>1879.49</v>
       </c>
-      <c r="P88" s="9">
+      <c r="P88" s="8">
         <v>2100.5500000000002</v>
       </c>
-      <c r="Q88" s="9">
+      <c r="Q88" s="8">
         <v>0</v>
       </c>
-      <c r="R88" s="9">
+      <c r="R88" s="8">
         <v>0</v>
       </c>
     </row>
@@ -14397,8 +14123,8 @@
   </sheetPr>
   <dimension ref="E4:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14420,324 +14146,324 @@
       <c r="I4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>3</v>
+      <c r="J4" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="12"/>
-      <c r="F5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="14">
+      <c r="E5" s="11"/>
+      <c r="F5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="13">
         <v>129.09</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>46.84</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>242.6</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="14">
         <v>478.12</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>521.14</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>6.14</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>8.2200000000000006</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <v>2967.44</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="15">
         <v>3124.17</v>
       </c>
     </row>
     <row r="6" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="14">
+      <c r="E6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="13">
         <v>54.25</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>28.77</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="13">
         <v>220.07</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>521.46</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>644.35</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <v>11.34</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <v>19.88</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <v>3214.57</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="8">
         <v>3446.94</v>
       </c>
     </row>
     <row r="7" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="14">
+      <c r="E7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="13">
         <v>58.33</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>46.93</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="13">
         <v>157.79</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="14">
         <v>7.14</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="15">
         <v>11.42</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <v>29.13</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>34.17</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="8">
         <v>234.85</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="8">
         <v>274.69</v>
       </c>
     </row>
     <row r="8" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="12"/>
-      <c r="F8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="14">
+      <c r="E8" s="11"/>
+      <c r="F8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="13">
         <v>70.97</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>33.520000000000003</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>209.91</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="14">
         <v>5.31</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <v>7.11</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="8">
         <v>16.78</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="15">
         <v>19.399999999999999</v>
       </c>
-      <c r="N8" s="9">
+      <c r="N8" s="8">
         <v>148.76</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="8">
         <v>162.52000000000001</v>
       </c>
     </row>
     <row r="9" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="12"/>
-      <c r="F9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="14">
+      <c r="E9" s="11"/>
+      <c r="F9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="13">
         <v>315.37</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>212.46</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <v>246.26</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="14">
         <v>19.82</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="8">
         <v>26.34</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
         <v>62.01</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="15">
         <v>89.88</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <v>437.67</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="8">
         <v>497.24</v>
       </c>
     </row>
     <row r="10" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="12"/>
-      <c r="F10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="14">
+      <c r="E10" s="11"/>
+      <c r="F10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="13">
         <v>1195.32</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>594.77</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <v>692.82</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="14">
         <v>14.2</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>21.79</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <v>37.85</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <v>44.67</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="8">
         <v>385.21</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="8">
         <v>400.7</v>
       </c>
     </row>
     <row r="11" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="12"/>
-      <c r="F11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="14">
+      <c r="E11" s="11"/>
+      <c r="F11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="13">
         <v>1960.7</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="14">
         <v>632.64</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="13">
         <v>753.81</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="14">
         <v>11.34</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>18.52</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <v>35.369999999999997</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="15">
         <v>42.94</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="15">
         <v>312.63</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="8">
         <v>341.11</v>
       </c>
     </row>
     <row r="12" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="12"/>
-      <c r="F12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="14">
+      <c r="E12" s="11"/>
+      <c r="F12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="13">
         <v>30.04</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>20.02</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <v>145.94999999999999</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="14">
         <v>5.14</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="15">
         <v>6.22</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <v>9.4700000000000006</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <v>12.97</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="15">
         <v>127.33</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="8">
         <v>139.71</v>
       </c>
     </row>
     <row r="13" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="12"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="12"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="12"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="15"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="5:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="12"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
